--- a/BackTest/2019-11-02 BackTest TRV.xlsx
+++ b/BackTest/2019-11-02 BackTest TRV.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.500000000000014</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>57.14285714285693</v>
+      </c>
       <c r="L12" t="n">
         <v>43.23999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.200000000000017</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>43.25</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.200000000000017</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-11.1111111111112</v>
+      </c>
       <c r="L14" t="n">
         <v>43.25</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.800000000000018</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>43.17</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3.40000000000002</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-6.66666666666673</v>
+      </c>
       <c r="L16" t="n">
         <v>43.15</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.800000000000018</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-12.49999999999992</v>
+      </c>
       <c r="L17" t="n">
         <v>43.09</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.800000000000018</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-24.13793103448251</v>
+      </c>
       <c r="L18" t="n">
         <v>43.05</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>4.200000000000017</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-41.93548387096753</v>
+      </c>
       <c r="L19" t="n">
         <v>42.94</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4.40000000000002</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-43.74999999999982</v>
+      </c>
       <c r="L20" t="n">
         <v>42.79000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>4.800000000000018</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-63.6363636363636</v>
+      </c>
       <c r="L21" t="n">
         <v>42.61000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>4.800000000000018</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-53.84615384615377</v>
+      </c>
       <c r="L22" t="n">
         <v>42.40000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>5.100000000000016</v>
       </c>
       <c r="K23" t="n">
-        <v>-19.99999999999994</v>
+        <v>-37.93103448275869</v>
       </c>
       <c r="L23" t="n">
         <v>42.29000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>6.100000000000016</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.694915254237308</v>
+        <v>15.15151515151517</v>
       </c>
       <c r="L24" t="n">
         <v>42.28000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K25" t="n">
-        <v>-8.474576271186432</v>
+        <v>-10.34482758620683</v>
       </c>
       <c r="L25" t="n">
         <v>42.31000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>7.400000000000013</v>
       </c>
       <c r="K26" t="n">
-        <v>-22.85714285714285</v>
+        <v>-27.77777777777782</v>
       </c>
       <c r="L26" t="n">
         <v>42.17000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>8.600000000000016</v>
       </c>
       <c r="K27" t="n">
-        <v>-34.14634146341464</v>
+        <v>-45.83333333333342</v>
       </c>
       <c r="L27" t="n">
         <v>41.95</v>
@@ -1662,7 +1684,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-7.070707070707096</v>
+        <v>1.587301587301498</v>
       </c>
       <c r="L28" t="n">
         <v>41.92</v>
@@ -1711,7 +1733,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-23.89380530973447</v>
+        <v>-17.94871794871796</v>
       </c>
       <c r="L29" t="n">
         <v>41.76000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>-13.82113821138214</v>
+        <v>2.325581395348791</v>
       </c>
       <c r="L30" t="n">
         <v>41.74000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>13.5</v>
       </c>
       <c r="K31" t="n">
-        <v>-13.82113821138209</v>
+        <v>1.149425287356341</v>
       </c>
       <c r="L31" t="n">
         <v>41.75000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>-15.70247933884305</v>
+        <v>-1.176470588235314</v>
       </c>
       <c r="L32" t="n">
         <v>41.77</v>
@@ -1911,7 +1933,7 @@
         <v>14.49999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-17.07317073170736</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L33" t="n">
         <v>41.67</v>
@@ -1962,7 +1984,7 @@
         <v>14.59999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>-17.74193548387102</v>
+        <v>-22.89156626506036</v>
       </c>
       <c r="L34" t="n">
         <v>41.46000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>-17.07317073170736</v>
+        <v>-16.88311688311698</v>
       </c>
       <c r="L35" t="n">
         <v>41.22000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>-23.07692307692315</v>
+        <v>-1.538461538461565</v>
       </c>
       <c r="L36" t="n">
         <v>41.09000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>-20.35398230088504</v>
+        <v>-43.4782608695654</v>
       </c>
       <c r="L37" t="n">
         <v>41.08000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>-20.35398230088504</v>
+        <v>-10.3448275862071</v>
       </c>
       <c r="L38" t="n">
         <v>40.88000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>15.19999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>-18.18181818181823</v>
+        <v>-88.88888888888941</v>
       </c>
       <c r="L39" t="n">
         <v>40.84000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>-11.50442477876107</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L40" t="n">
         <v>40.73</v>
@@ -2319,7 +2341,7 @@
         <v>15.79999999999998</v>
       </c>
       <c r="K41" t="n">
-        <v>-7.272727272727335</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L41" t="n">
         <v>40.64000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>15.89999999999998</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.306306306306351</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>40.55</v>
@@ -2421,7 +2443,7 @@
         <v>16.09999999999998</v>
       </c>
       <c r="K43" t="n">
-        <v>-10.90909090909091</v>
+        <v>-6.666666666666352</v>
       </c>
       <c r="L43" t="n">
         <v>40.53000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>16.29999999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>-19.60784313725498</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L44" t="n">
         <v>40.54000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>16.29999999999998</v>
       </c>
       <c r="K45" t="n">
-        <v>-18.00000000000011</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L45" t="n">
         <v>40.6</v>
@@ -2574,7 +2596,7 @@
         <v>16.29999999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>-7.865168539325908</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L46" t="n">
         <v>40.66</v>
@@ -2625,7 +2647,7 @@
         <v>16.29999999999998</v>
       </c>
       <c r="K47" t="n">
-        <v>6.493506493506527</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L47" t="n">
         <v>40.71999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>16.99999999999998</v>
       </c>
       <c r="K48" t="n">
-        <v>-10.76923076923076</v>
+        <v>77.77777777777813</v>
       </c>
       <c r="L48" t="n">
         <v>40.84999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>17.09999999999998</v>
       </c>
       <c r="K49" t="n">
-        <v>18.36734693877559</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L49" t="n">
         <v>40.98</v>
@@ -2778,7 +2800,7 @@
         <v>17.59999999999998</v>
       </c>
       <c r="K50" t="n">
-        <v>-19.0476190476191</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L50" t="n">
         <v>41.01</v>
@@ -2829,7 +2851,7 @@
         <v>17.59999999999998</v>
       </c>
       <c r="K51" t="n">
-        <v>-17.07317073170747</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L51" t="n">
         <v>41.02999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>18.09999999999998</v>
       </c>
       <c r="K52" t="n">
-        <v>-6.666666666666625</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L52" t="n">
         <v>41.09</v>
@@ -2931,7 +2953,7 @@
         <v>18.19999999999998</v>
       </c>
       <c r="K53" t="n">
-        <v>13.51351351351356</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L53" t="n">
         <v>41.16</v>
@@ -2982,7 +3004,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>18.91891891891905</v>
+        <v>29.99999999999996</v>
       </c>
       <c r="L54" t="n">
         <v>41.22</v>
@@ -3033,7 +3055,7 @@
         <v>18.39999999999998</v>
       </c>
       <c r="K55" t="n">
-        <v>33.33333333333348</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L55" t="n">
         <v>41.27</v>
@@ -3084,7 +3106,7 @@
         <v>18.59999999999998</v>
       </c>
       <c r="K56" t="n">
-        <v>25.71428571428599</v>
+        <v>13.04347826086973</v>
       </c>
       <c r="L56" t="n">
         <v>41.3</v>
@@ -3135,7 +3157,7 @@
         <v>18.59999999999998</v>
       </c>
       <c r="K57" t="n">
-        <v>25.71428571428599</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L57" t="n">
         <v>41.33</v>
@@ -3186,7 +3208,7 @@
         <v>18.59999999999998</v>
       </c>
       <c r="K58" t="n">
-        <v>25.71428571428599</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L58" t="n">
         <v>41.29</v>
@@ -3237,7 +3259,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K59" t="n">
-        <v>31.4285714285714</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L59" t="n">
         <v>41.27</v>
@@ -3288,7 +3310,7 @@
         <v>18.79999999999998</v>
       </c>
       <c r="K60" t="n">
-        <v>22.58064516129028</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>41.31</v>
@@ -3339,7 +3361,7 @@
         <v>18.89999999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>22.58064516129046</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>41.36</v>
@@ -3390,7 +3412,7 @@
         <v>19.09999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>12.49999999999997</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L62" t="n">
         <v>41.34</v>
@@ -3441,7 +3463,7 @@
         <v>19.19999999999997</v>
       </c>
       <c r="K63" t="n">
-        <v>16.12903225806455</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>41.32</v>
@@ -3492,7 +3514,7 @@
         <v>19.39999999999997</v>
       </c>
       <c r="K64" t="n">
-        <v>16.12903225806455</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>41.31</v>
@@ -3543,7 +3565,7 @@
         <v>19.39999999999997</v>
       </c>
       <c r="K65" t="n">
-        <v>16.12903225806455</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L65" t="n">
         <v>41.31</v>
@@ -3594,7 +3616,7 @@
         <v>19.39999999999997</v>
       </c>
       <c r="K66" t="n">
-        <v>16.12903225806455</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L66" t="n">
         <v>41.33</v>
@@ -3645,7 +3667,7 @@
         <v>19.49999999999997</v>
       </c>
       <c r="K67" t="n">
-        <v>18.75000000000007</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>41.36</v>
@@ -3696,7 +3718,7 @@
         <v>19.89999999999997</v>
       </c>
       <c r="K68" t="n">
-        <v>10.34482758620683</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L68" t="n">
         <v>41.42999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>19.99999999999997</v>
       </c>
       <c r="K69" t="n">
-        <v>10.34482758620683</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>41.48</v>
@@ -3798,7 +3820,7 @@
         <v>20.09999999999997</v>
       </c>
       <c r="K70" t="n">
-        <v>36.00000000000004</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>41.52999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>20.29999999999997</v>
       </c>
       <c r="K71" t="n">
-        <v>25.92592592592614</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L71" t="n">
         <v>41.55</v>
@@ -3900,7 +3922,7 @@
         <v>20.29999999999997</v>
       </c>
       <c r="K72" t="n">
-        <v>9.090909090909268</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L72" t="n">
         <v>41.58999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>20.49999999999997</v>
       </c>
       <c r="K73" t="n">
-        <v>4.347826086956602</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L73" t="n">
         <v>41.61999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>20.69999999999997</v>
       </c>
       <c r="K74" t="n">
-        <v>-8.333333333333481</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L74" t="n">
         <v>41.61</v>
@@ -4053,7 +4075,7 @@
         <v>20.69999999999997</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.347826086956602</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L75" t="n">
         <v>41.6</v>
@@ -4104,7 +4126,7 @@
         <v>20.79999999999997</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L76" t="n">
         <v>41.58</v>
@@ -4155,7 +4177,7 @@
         <v>20.79999999999997</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-77.77777777777743</v>
       </c>
       <c r="L77" t="n">
         <v>41.55</v>
@@ -4206,7 +4228,7 @@
         <v>21.09999999999997</v>
       </c>
       <c r="K78" t="n">
-        <v>11.99999999999996</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L78" t="n">
         <v>41.51000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>21.09999999999997</v>
       </c>
       <c r="K79" t="n">
-        <v>8.333333333333481</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L79" t="n">
         <v>41.48</v>
@@ -4308,7 +4330,7 @@
         <v>21.09999999999997</v>
       </c>
       <c r="K80" t="n">
-        <v>4.347826086956602</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L80" t="n">
         <v>41.44</v>
@@ -4359,7 +4381,7 @@
         <v>21.09999999999997</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L81" t="n">
         <v>41.42</v>
@@ -4410,7 +4432,7 @@
         <v>21.19999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>4.761904761904859</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L82" t="n">
         <v>41.39</v>
@@ -4461,7 +4483,7 @@
         <v>21.49999999999996</v>
       </c>
       <c r="K83" t="n">
-        <v>-4.347826086956602</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L83" t="n">
         <v>41.35000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>21.99999999999996</v>
       </c>
       <c r="K84" t="n">
-        <v>-30.76923076923073</v>
+        <v>-53.84615384615393</v>
       </c>
       <c r="L84" t="n">
         <v>41.28000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>22.69999999999996</v>
       </c>
       <c r="K85" t="n">
-        <v>-3.030303030303082</v>
+        <v>5.263157894736566</v>
       </c>
       <c r="L85" t="n">
         <v>41.28000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>22.79999999999996</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L86" t="n">
         <v>41.3</v>
@@ -4665,7 +4687,7 @@
         <v>23.19999999999996</v>
       </c>
       <c r="K87" t="n">
-        <v>-13.51351351351356</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L87" t="n">
         <v>41.28000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>23.19999999999996</v>
       </c>
       <c r="K88" t="n">
-        <v>-27.27272727272731</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L88" t="n">
         <v>41.23</v>
@@ -4767,7 +4789,7 @@
         <v>23.19999999999996</v>
       </c>
       <c r="K89" t="n">
-        <v>-25</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L89" t="n">
         <v>41.18000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>23.49999999999996</v>
       </c>
       <c r="K90" t="n">
-        <v>-35.29411764705886</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>41.10000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>24.19999999999995</v>
       </c>
       <c r="K91" t="n">
-        <v>-7.692307692307833</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>41.09</v>
@@ -4920,7 +4942,7 @@
         <v>24.29999999999995</v>
       </c>
       <c r="K92" t="n">
-        <v>-10.00000000000018</v>
+        <v>7.142857142857016</v>
       </c>
       <c r="L92" t="n">
         <v>41.08000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>24.39999999999996</v>
       </c>
       <c r="K93" t="n">
-        <v>-2.564102564102611</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>41.11</v>
@@ -5022,7 +5044,7 @@
         <v>24.89999999999996</v>
       </c>
       <c r="K94" t="n">
-        <v>14.28571428571438</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L94" t="n">
         <v>41.23999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>24.99999999999996</v>
       </c>
       <c r="K95" t="n">
-        <v>16.27906976744199</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L95" t="n">
         <v>41.31</v>
@@ -5124,7 +5146,7 @@
         <v>24.99999999999996</v>
       </c>
       <c r="K96" t="n">
-        <v>19.04761904761903</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L96" t="n">
         <v>41.37</v>
@@ -5175,7 +5197,7 @@
         <v>24.99999999999996</v>
       </c>
       <c r="K97" t="n">
-        <v>19.04761904761903</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L97" t="n">
         <v>41.47</v>
@@ -5226,7 +5248,7 @@
         <v>24.99999999999996</v>
       </c>
       <c r="K98" t="n">
-        <v>12.82051282051285</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L98" t="n">
         <v>41.57</v>
@@ -5277,7 +5299,7 @@
         <v>25.29999999999995</v>
       </c>
       <c r="K99" t="n">
-        <v>4.761904761904842</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L99" t="n">
         <v>41.64</v>
@@ -5328,7 +5350,7 @@
         <v>25.59999999999995</v>
       </c>
       <c r="K100" t="n">
-        <v>11.11111111111115</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L100" t="n">
         <v>41.77</v>
@@ -5379,7 +5401,7 @@
         <v>25.59999999999995</v>
       </c>
       <c r="K101" t="n">
-        <v>11.11111111111115</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L101" t="n">
         <v>41.83</v>
@@ -5430,7 +5452,7 @@
         <v>26.29999999999995</v>
       </c>
       <c r="K102" t="n">
-        <v>-1.960784313725523</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L102" t="n">
         <v>41.83</v>
@@ -5481,7 +5503,7 @@
         <v>26.49999999999995</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L103" t="n">
         <v>41.8</v>
@@ -5532,7 +5554,7 @@
         <v>27.29999999999995</v>
       </c>
       <c r="K104" t="n">
-        <v>24.52830188679248</v>
+        <v>-4.347826086956602</v>
       </c>
       <c r="L104" t="n">
         <v>41.8</v>
@@ -5583,7 +5605,7 @@
         <v>27.29999999999995</v>
       </c>
       <c r="K105" t="n">
-        <v>13.04347826086963</v>
+        <v>-4.347826086956602</v>
       </c>
       <c r="L105" t="n">
         <v>41.79000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>27.39999999999995</v>
       </c>
       <c r="K106" t="n">
-        <v>13.04347826086963</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>41.79000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>28.79999999999995</v>
       </c>
       <c r="K107" t="n">
-        <v>-7.142857142857134</v>
+        <v>-36.84210526315795</v>
       </c>
       <c r="L107" t="n">
         <v>41.65000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>30.19999999999995</v>
       </c>
       <c r="K108" t="n">
-        <v>14.28571428571431</v>
+        <v>6.122448979591789</v>
       </c>
       <c r="L108" t="n">
         <v>41.65000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>31.29999999999995</v>
       </c>
       <c r="K109" t="n">
-        <v>-1.234567901234587</v>
+        <v>-19.29824561403513</v>
       </c>
       <c r="L109" t="n">
         <v>41.57000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>31.39999999999995</v>
       </c>
       <c r="K110" t="n">
-        <v>3.797468354430348</v>
+        <v>-17.24137931034484</v>
       </c>
       <c r="L110" t="n">
         <v>41.47000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>31.49999999999995</v>
       </c>
       <c r="K111" t="n">
-        <v>-4.109589041095854</v>
+        <v>-3.846153846153767</v>
       </c>
       <c r="L111" t="n">
         <v>41.38000000000001</v>
@@ -5940,7 +5962,7 @@
         <v>31.69999999999995</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.405405405405387</v>
+        <v>-3.846153846153898</v>
       </c>
       <c r="L112" t="n">
         <v>41.34</v>
@@ -5991,7 +6013,7 @@
         <v>31.79999999999995</v>
       </c>
       <c r="K113" t="n">
-        <v>-5.405405405405387</v>
+        <v>-19.99999999999994</v>
       </c>
       <c r="L113" t="n">
         <v>41.33</v>
@@ -6042,7 +6064,7 @@
         <v>31.79999999999995</v>
       </c>
       <c r="K114" t="n">
-        <v>-13.04347826086955</v>
+        <v>-19.99999999999994</v>
       </c>
       <c r="L114" t="n">
         <v>41.24</v>
@@ -6093,7 +6115,7 @@
         <v>31.79999999999995</v>
       </c>
       <c r="K115" t="n">
-        <v>-14.70588235294118</v>
+        <v>-22.7272727272727</v>
       </c>
       <c r="L115" t="n">
         <v>41.15000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>31.79999999999995</v>
       </c>
       <c r="K116" t="n">
-        <v>-14.70588235294118</v>
+        <v>13.33333333333326</v>
       </c>
       <c r="L116" t="n">
         <v>41.05</v>
@@ -6195,7 +6217,7 @@
         <v>31.79999999999995</v>
       </c>
       <c r="K117" t="n">
-        <v>-14.70588235294118</v>
+        <v>-62.49999999999967</v>
       </c>
       <c r="L117" t="n">
         <v>41.09</v>
@@ -6246,7 +6268,7 @@
         <v>32.19999999999995</v>
       </c>
       <c r="K118" t="n">
-        <v>-8.333333333333357</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L118" t="n">
         <v>41.03</v>
@@ -6297,7 +6319,7 @@
         <v>32.39999999999995</v>
       </c>
       <c r="K119" t="n">
-        <v>-7.042253521126766</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L119" t="n">
         <v>41.06</v>
@@ -6348,7 +6370,7 @@
         <v>32.59999999999995</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L120" t="n">
         <v>41.06</v>
@@ -6399,7 +6421,7 @@
         <v>32.79999999999995</v>
       </c>
       <c r="K121" t="n">
-        <v>-16.6666666666667</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L121" t="n">
         <v>41.03</v>
@@ -6450,7 +6472,7 @@
         <v>33.49999999999996</v>
       </c>
       <c r="K122" t="n">
-        <v>2.777777777777816</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L122" t="n">
         <v>41.09</v>
@@ -6501,7 +6523,7 @@
         <v>33.69999999999996</v>
       </c>
       <c r="K123" t="n">
-        <v>2.777777777777715</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L123" t="n">
         <v>41.12</v>
@@ -6552,7 +6574,7 @@
         <v>33.69999999999996</v>
       </c>
       <c r="K124" t="n">
-        <v>-9.375000000000004</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L124" t="n">
         <v>41.15000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>33.79999999999995</v>
       </c>
       <c r="K125" t="n">
-        <v>-10.76923076923069</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L125" t="n">
         <v>41.17</v>
@@ -6654,7 +6676,7 @@
         <v>33.79999999999995</v>
       </c>
       <c r="K126" t="n">
-        <v>-12.49999999999994</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L126" t="n">
         <v>41.19</v>
@@ -6705,7 +6727,7 @@
         <v>33.79999999999995</v>
       </c>
       <c r="K127" t="n">
-        <v>12.00000000000001</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L127" t="n">
         <v>41.21</v>
@@ -6756,7 +6778,7 @@
         <v>33.99999999999996</v>
       </c>
       <c r="K128" t="n">
-        <v>-26.31578947368413</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L128" t="n">
         <v>41.17</v>
@@ -6807,7 +6829,7 @@
         <v>33.99999999999996</v>
       </c>
       <c r="K129" t="n">
-        <v>3.703703703703742</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>41.15000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>34.29999999999995</v>
       </c>
       <c r="K130" t="n">
-        <v>10.34482758620678</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>41.18000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>34.59999999999995</v>
       </c>
       <c r="K131" t="n">
-        <v>-3.225806451612947</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L131" t="n">
         <v>41.2</v>
@@ -6960,7 +6982,7 @@
         <v>34.99999999999995</v>
       </c>
       <c r="K132" t="n">
-        <v>15.15151515151517</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L132" t="n">
         <v>41.19</v>
@@ -7011,7 +7033,7 @@
         <v>35.39999999999995</v>
       </c>
       <c r="K133" t="n">
-        <v>22.22222222222218</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L133" t="n">
         <v>41.24</v>
@@ -7062,7 +7084,7 @@
         <v>35.89999999999995</v>
       </c>
       <c r="K134" t="n">
-        <v>7.317073170731649</v>
+        <v>4.761904761904504</v>
       </c>
       <c r="L134" t="n">
         <v>41.24</v>
@@ -7113,7 +7135,7 @@
         <v>35.99999999999994</v>
       </c>
       <c r="K135" t="n">
-        <v>4.761904761904842</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>41.24</v>
@@ -7164,7 +7186,7 @@
         <v>36.49999999999994</v>
       </c>
       <c r="K136" t="n">
-        <v>14.89361702127669</v>
+        <v>18.51851851851859</v>
       </c>
       <c r="L136" t="n">
         <v>41.29000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>36.59999999999994</v>
       </c>
       <c r="K137" t="n">
-        <v>12.50000000000006</v>
+        <v>23.07692307692324</v>
       </c>
       <c r="L137" t="n">
         <v>41.33000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>36.99999999999994</v>
       </c>
       <c r="K138" t="n">
-        <v>-4.166666666666587</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L138" t="n">
         <v>41.35000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>36.99999999999994</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>-3.703703703703508</v>
       </c>
       <c r="L139" t="n">
         <v>41.37</v>
@@ -7368,7 +7390,7 @@
         <v>37.09999999999994</v>
       </c>
       <c r="K140" t="n">
-        <v>2.222222222222257</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L140" t="n">
         <v>41.35000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>37.19999999999995</v>
       </c>
       <c r="K141" t="n">
-        <v>4.54545454545462</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L141" t="n">
         <v>41.35000000000001</v>
@@ -7470,7 +7492,7 @@
         <v>37.39999999999995</v>
       </c>
       <c r="K142" t="n">
-        <v>-17.94871794871806</v>
+        <v>-50</v>
       </c>
       <c r="L142" t="n">
         <v>41.29000000000001</v>
@@ -7521,7 +7543,7 @@
         <v>37.49999999999994</v>
       </c>
       <c r="K143" t="n">
-        <v>-15.78947368421045</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L143" t="n">
         <v>41.18000000000001</v>
@@ -7572,7 +7594,7 @@
         <v>38.49999999999994</v>
       </c>
       <c r="K144" t="n">
-        <v>8.333333333333481</v>
+        <v>20</v>
       </c>
       <c r="L144" t="n">
         <v>41.22000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>39.49999999999994</v>
       </c>
       <c r="K145" t="n">
-        <v>-8.771929824561422</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>41.17</v>
@@ -7674,7 +7696,7 @@
         <v>40.29999999999994</v>
       </c>
       <c r="K146" t="n">
-        <v>4.615384615384581</v>
+        <v>-2.702702702702744</v>
       </c>
       <c r="L146" t="n">
         <v>41.15000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>41.09999999999994</v>
       </c>
       <c r="K147" t="n">
-        <v>-6.849315068493167</v>
+        <v>-12.19512195121953</v>
       </c>
       <c r="L147" t="n">
         <v>41.06</v>
@@ -7776,7 +7798,7 @@
         <v>41.79999999999993</v>
       </c>
       <c r="K148" t="n">
-        <v>5.128205128205126</v>
+        <v>4.166666666666587</v>
       </c>
       <c r="L148" t="n">
         <v>41.08</v>
@@ -7827,7 +7849,7 @@
         <v>42.59999999999993</v>
       </c>
       <c r="K149" t="n">
-        <v>-4.651162790697672</v>
+        <v>-9.090909090909115</v>
       </c>
       <c r="L149" t="n">
         <v>41.02</v>
@@ -7878,7 +7900,7 @@
         <v>42.59999999999993</v>
       </c>
       <c r="K150" t="n">
-        <v>-8.43373493975901</v>
+        <v>-7.407407407407403</v>
       </c>
       <c r="L150" t="n">
         <v>40.97000000000001</v>
@@ -7929,7 +7951,7 @@
         <v>42.79999999999993</v>
       </c>
       <c r="K151" t="n">
-        <v>-2.439024390243945</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>40.95</v>
@@ -7980,7 +8002,7 @@
         <v>42.89999999999992</v>
       </c>
       <c r="K152" t="n">
-        <v>-8.860759493670866</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>40.94</v>
@@ -8031,7 +8053,7 @@
         <v>42.99999999999992</v>
       </c>
       <c r="K153" t="n">
-        <v>-15.78947368421053</v>
+        <v>-24.44444444444459</v>
       </c>
       <c r="L153" t="n">
         <v>40.93000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>43.09999999999992</v>
       </c>
       <c r="K154" t="n">
-        <v>-11.11111111111111</v>
+        <v>-5.555555555555665</v>
       </c>
       <c r="L154" t="n">
         <v>40.81000000000001</v>
@@ -8133,7 +8155,7 @@
         <v>43.09999999999992</v>
       </c>
       <c r="K155" t="n">
-        <v>-9.859154929577532</v>
+        <v>-35.71428571428593</v>
       </c>
       <c r="L155" t="n">
         <v>40.79000000000001</v>
@@ -8184,7 +8206,7 @@
         <v>43.19999999999992</v>
       </c>
       <c r="K156" t="n">
-        <v>-16.41791044776126</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L156" t="n">
         <v>40.70000000000001</v>
@@ -8235,7 +8257,7 @@
         <v>43.39999999999992</v>
       </c>
       <c r="K157" t="n">
-        <v>-11.76470588235305</v>
+        <v>-37.50000000000039</v>
       </c>
       <c r="L157" t="n">
         <v>40.71000000000002</v>
@@ -8286,7 +8308,7 @@
         <v>43.59999999999992</v>
       </c>
       <c r="K158" t="n">
-        <v>-9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>40.63000000000002</v>
@@ -8337,7 +8359,7 @@
         <v>43.69999999999992</v>
       </c>
       <c r="K159" t="n">
-        <v>-7.462686567164208</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L159" t="n">
         <v>40.64000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>43.89999999999992</v>
       </c>
       <c r="K160" t="n">
-        <v>-8.823529411764758</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L160" t="n">
         <v>40.63000000000001</v>
@@ -8439,7 +8461,7 @@
         <v>43.99999999999992</v>
       </c>
       <c r="K161" t="n">
-        <v>-8.823529411764758</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L161" t="n">
         <v>40.59000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>43.99999999999992</v>
       </c>
       <c r="K162" t="n">
-        <v>-6.060606060606063</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L162" t="n">
         <v>40.56000000000001</v>
@@ -8541,7 +8563,7 @@
         <v>43.99999999999992</v>
       </c>
       <c r="K163" t="n">
-        <v>-4.615384615384696</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L163" t="n">
         <v>40.54000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>43.99999999999992</v>
       </c>
       <c r="K164" t="n">
-        <v>-23.6363636363638</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L164" t="n">
         <v>40.53</v>
@@ -8643,7 +8665,7 @@
         <v>43.99999999999992</v>
       </c>
       <c r="K165" t="n">
-        <v>-6.666666666666793</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L165" t="n">
         <v>40.52</v>
@@ -8694,7 +8716,7 @@
         <v>44.09999999999992</v>
       </c>
       <c r="K166" t="n">
-        <v>-31.57894736842127</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L166" t="n">
         <v>40.48999999999999</v>
@@ -8745,7 +8767,7 @@
         <v>44.49999999999993</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L167" t="n">
         <v>40.48</v>
@@ -8796,7 +8818,7 @@
         <v>44.69999999999993</v>
       </c>
       <c r="K168" t="n">
-        <v>-31.03448275862066</v>
+        <v>-20</v>
       </c>
       <c r="L168" t="n">
         <v>40.46999999999999</v>
@@ -8847,7 +8869,7 @@
         <v>44.69999999999993</v>
       </c>
       <c r="K169" t="n">
-        <v>-4.761904761904826</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>40.45</v>
@@ -8898,7 +8920,7 @@
         <v>44.69999999999993</v>
       </c>
       <c r="K170" t="n">
-        <v>-4.761904761904826</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L170" t="n">
         <v>40.45</v>
@@ -8949,7 +8971,7 @@
         <v>44.79999999999993</v>
       </c>
       <c r="K171" t="n">
-        <v>-9.999999999999751</v>
+        <v>25</v>
       </c>
       <c r="L171" t="n">
         <v>40.47</v>
@@ -9000,7 +9022,7 @@
         <v>44.79999999999993</v>
       </c>
       <c r="K172" t="n">
-        <v>-5.263157894736882</v>
+        <v>25</v>
       </c>
       <c r="L172" t="n">
         <v>40.49</v>
@@ -9051,7 +9073,7 @@
         <v>45.09999999999993</v>
       </c>
       <c r="K173" t="n">
-        <v>14.28571428571409</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L173" t="n">
         <v>40.54000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>45.19999999999993</v>
       </c>
       <c r="K174" t="n">
-        <v>14.28571428571409</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L174" t="n">
         <v>40.58000000000001</v>
@@ -9153,7 +9175,7 @@
         <v>45.29999999999993</v>
       </c>
       <c r="K175" t="n">
-        <v>18.18181818181803</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L175" t="n">
         <v>40.63000000000001</v>
@@ -9204,7 +9226,7 @@
         <v>45.29999999999993</v>
       </c>
       <c r="K176" t="n">
-        <v>14.28571428571409</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L176" t="n">
         <v>40.69</v>
@@ -9255,7 +9277,7 @@
         <v>45.49999999999994</v>
       </c>
       <c r="K177" t="n">
-        <v>14.28571428571438</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L177" t="n">
         <v>40.73</v>
@@ -9306,7 +9328,7 @@
         <v>45.59999999999994</v>
       </c>
       <c r="K178" t="n">
-        <v>29.99999999999975</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L178" t="n">
         <v>40.8</v>
@@ -9357,7 +9379,7 @@
         <v>45.89999999999993</v>
       </c>
       <c r="K179" t="n">
-        <v>36.36363636363595</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L179" t="n">
         <v>40.90000000000001</v>
@@ -9412,7 +9434,7 @@
         <v>45.89999999999993</v>
       </c>
       <c r="K180" t="n">
-        <v>49.99999999999964</v>
+        <v>81.81818181818159</v>
       </c>
       <c r="L180" t="n">
         <v>41.00000000000001</v>
@@ -9471,7 +9493,7 @@
         <v>46.19999999999993</v>
       </c>
       <c r="K181" t="n">
-        <v>36.3636363636364</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L181" t="n">
         <v>41.06</v>
@@ -9528,7 +9550,7 @@
         <v>46.49999999999993</v>
       </c>
       <c r="K182" t="n">
-        <v>43.99999999999994</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L182" t="n">
         <v>41.15</v>
@@ -9585,7 +9607,7 @@
         <v>46.49999999999993</v>
       </c>
       <c r="K183" t="n">
-        <v>43.99999999999994</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L183" t="n">
         <v>41.21</v>
@@ -9642,7 +9664,7 @@
         <v>46.59999999999993</v>
       </c>
       <c r="K184" t="n">
-        <v>46.15384615384611</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L184" t="n">
         <v>41.29000000000001</v>
@@ -9699,7 +9721,7 @@
         <v>46.69999999999993</v>
       </c>
       <c r="K185" t="n">
-        <v>40.74074074074064</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L185" t="n">
         <v>41.35000000000001</v>
@@ -9756,7 +9778,7 @@
         <v>46.89999999999993</v>
       </c>
       <c r="K186" t="n">
-        <v>35.71428571428557</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L186" t="n">
         <v>41.39000000000001</v>
@@ -9811,7 +9833,7 @@
         <v>46.99999999999994</v>
       </c>
       <c r="K187" t="n">
-        <v>27.99999999999975</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L187" t="n">
         <v>41.42</v>
@@ -9868,7 +9890,7 @@
         <v>47.09999999999994</v>
       </c>
       <c r="K188" t="n">
-        <v>33.33333333333314</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L188" t="n">
         <v>41.43000000000001</v>
@@ -9925,7 +9947,7 @@
         <v>47.39999999999993</v>
       </c>
       <c r="K189" t="n">
-        <v>18.5185185185185</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>41.38000000000001</v>
@@ -9982,7 +10004,7 @@
         <v>47.49999999999994</v>
       </c>
       <c r="K190" t="n">
-        <v>14.28571428571421</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L190" t="n">
         <v>41.32000000000001</v>
@@ -10039,7 +10061,7 @@
         <v>47.79999999999993</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>-69.2307692307689</v>
       </c>
       <c r="L191" t="n">
         <v>41.26000000000001</v>
@@ -10096,7 +10118,7 @@
         <v>48.09999999999994</v>
       </c>
       <c r="K192" t="n">
-        <v>-9.090909090909207</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L192" t="n">
         <v>41.14000000000001</v>
@@ -10153,7 +10175,7 @@
         <v>48.09999999999994</v>
       </c>
       <c r="K193" t="n">
-        <v>-20</v>
+        <v>-86.66666666666654</v>
       </c>
       <c r="L193" t="n">
         <v>41.02000000000001</v>
@@ -10210,7 +10232,7 @@
         <v>48.09999999999994</v>
       </c>
       <c r="K194" t="n">
-        <v>-17.24137931034479</v>
+        <v>-85.71428571428557</v>
       </c>
       <c r="L194" t="n">
         <v>40.89000000000001</v>
@@ -10267,7 +10289,7 @@
         <v>48.39999999999994</v>
       </c>
       <c r="K195" t="n">
-        <v>-9.677419354838591</v>
+        <v>-46.66666666666616</v>
       </c>
       <c r="L195" t="n">
         <v>40.80000000000001</v>
@@ -10324,7 +10346,7 @@
         <v>48.79999999999994</v>
       </c>
       <c r="K196" t="n">
-        <v>2.857142857142892</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L196" t="n">
         <v>40.77000000000001</v>
@@ -10381,7 +10403,7 @@
         <v>49.39999999999994</v>
       </c>
       <c r="K197" t="n">
-        <v>-17.948717948718</v>
+        <v>-39.13043478260856</v>
       </c>
       <c r="L197" t="n">
         <v>40.67000000000001</v>
@@ -10438,7 +10460,7 @@
         <v>49.99999999999994</v>
       </c>
       <c r="K198" t="n">
-        <v>-4.545454545454604</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>40.64000000000001</v>
@@ -10495,7 +10517,7 @@
         <v>50.49999999999994</v>
       </c>
       <c r="K199" t="n">
-        <v>-21.73913043478257</v>
+        <v>-13.33333333333326</v>
       </c>
       <c r="L199" t="n">
         <v>40.59000000000001</v>
@@ -10552,7 +10574,7 @@
         <v>50.69999999999995</v>
       </c>
       <c r="K200" t="n">
-        <v>-16.66666666666657</v>
+        <v>3.448275862068999</v>
       </c>
       <c r="L200" t="n">
         <v>40.57000000000001</v>
@@ -10609,7 +10631,7 @@
         <v>50.89999999999995</v>
       </c>
       <c r="K201" t="n">
-        <v>-14.8936170212766</v>
+        <v>7.142857142857216</v>
       </c>
       <c r="L201" t="n">
         <v>40.56000000000001</v>
@@ -10666,7 +10688,7 @@
         <v>51.09999999999995</v>
       </c>
       <c r="K202" t="n">
-        <v>-17.39130434782594</v>
+        <v>13.33333333333346</v>
       </c>
       <c r="L202" t="n">
         <v>40.60000000000001</v>
@@ -10723,7 +10745,7 @@
         <v>51.39999999999995</v>
       </c>
       <c r="K203" t="n">
-        <v>-10.20408163265302</v>
+        <v>21.21212121212123</v>
       </c>
       <c r="L203" t="n">
         <v>40.67</v>
@@ -10780,7 +10802,7 @@
         <v>51.39999999999995</v>
       </c>
       <c r="K204" t="n">
-        <v>-12.49999999999998</v>
+        <v>13.33333333333326</v>
       </c>
       <c r="L204" t="n">
         <v>40.74</v>
@@ -10837,7 +10859,7 @@
         <v>51.89999999999995</v>
       </c>
       <c r="K205" t="n">
-        <v>-19.23076923076917</v>
+        <v>-16.12903225806447</v>
       </c>
       <c r="L205" t="n">
         <v>40.73</v>
@@ -10888,7 +10910,7 @@
         <v>52.39999999999995</v>
       </c>
       <c r="K206" t="n">
-        <v>-23.63636363636353</v>
+        <v>-13.33333333333326</v>
       </c>
       <c r="L206" t="n">
         <v>40.63</v>
@@ -10939,7 +10961,7 @@
         <v>52.89999999999995</v>
       </c>
       <c r="K207" t="n">
-        <v>-15.25423728813554</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L207" t="n">
         <v>40.64</v>
@@ -10990,7 +11012,7 @@
         <v>53.19999999999995</v>
       </c>
       <c r="K208" t="n">
-        <v>-18.03278688524578</v>
+        <v>-11.11111111111099</v>
       </c>
       <c r="L208" t="n">
         <v>40.56</v>
@@ -11041,7 +11063,7 @@
         <v>53.79999999999994</v>
       </c>
       <c r="K209" t="n">
-        <v>-3.125000000000042</v>
+        <v>3.225806451612725</v>
       </c>
       <c r="L209" t="n">
         <v>40.59</v>
@@ -11092,7 +11114,7 @@
         <v>54.39999999999993</v>
       </c>
       <c r="K210" t="n">
-        <v>-10.14492753623182</v>
+        <v>-8.571428571428525</v>
       </c>
       <c r="L210" t="n">
         <v>40.54000000000001</v>
@@ -11143,7 +11165,7 @@
         <v>54.89999999999993</v>
       </c>
       <c r="K211" t="n">
-        <v>1.408450704225372</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>40.56</v>
@@ -11194,7 +11216,7 @@
         <v>54.99999999999993</v>
       </c>
       <c r="K212" t="n">
-        <v>7.246376811594211</v>
+        <v>-5.555555555555665</v>
       </c>
       <c r="L212" t="n">
         <v>40.57000000000001</v>
@@ -11245,7 +11267,7 @@
         <v>55.49999999999993</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>-17.07317073170747</v>
       </c>
       <c r="L213" t="n">
         <v>40.50000000000001</v>
@@ -11296,7 +11318,7 @@
         <v>55.99999999999993</v>
       </c>
       <c r="K214" t="n">
-        <v>6.32911392405064</v>
+        <v>7.317073170731674</v>
       </c>
       <c r="L214" t="n">
         <v>40.48</v>
@@ -11347,7 +11369,7 @@
         <v>55.99999999999993</v>
       </c>
       <c r="K215" t="n">
-        <v>2.63157894736837</v>
+        <v>22.22222222222226</v>
       </c>
       <c r="L215" t="n">
         <v>40.51000000000001</v>
@@ -11398,7 +11420,7 @@
         <v>55.99999999999993</v>
       </c>
       <c r="K216" t="n">
-        <v>-2.777777777777822</v>
+        <v>9.67741935483868</v>
       </c>
       <c r="L216" t="n">
         <v>40.59000000000001</v>
@@ -11449,7 +11471,7 @@
         <v>56.39999999999993</v>
       </c>
       <c r="K217" t="n">
-        <v>0</v>
+        <v>6.249999999999903</v>
       </c>
       <c r="L217" t="n">
         <v>40.58000000000001</v>
@@ -11500,7 +11522,7 @@
         <v>56.69999999999993</v>
       </c>
       <c r="K218" t="n">
-        <v>-4.477611940298472</v>
+        <v>-3.44827586206878</v>
       </c>
       <c r="L218" t="n">
         <v>40.63000000000001</v>
@@ -11551,7 +11573,7 @@
         <v>56.69999999999993</v>
       </c>
       <c r="K219" t="n">
-        <v>3.225806451612955</v>
+        <v>21.73913043478263</v>
       </c>
       <c r="L219" t="n">
         <v>40.62</v>
@@ -11602,7 +11624,7 @@
         <v>56.89999999999993</v>
       </c>
       <c r="K220" t="n">
-        <v>-3.225806451612955</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L220" t="n">
         <v>40.65000000000001</v>
@@ -11653,7 +11675,7 @@
         <v>56.89999999999993</v>
       </c>
       <c r="K221" t="n">
-        <v>0</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L221" t="n">
         <v>40.63000000000001</v>
@@ -11704,7 +11726,7 @@
         <v>56.89999999999993</v>
       </c>
       <c r="K222" t="n">
-        <v>-3.448275862069024</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L222" t="n">
         <v>40.60000000000001</v>
@@ -11755,7 +11777,7 @@
         <v>56.99999999999994</v>
       </c>
       <c r="K223" t="n">
-        <v>-7.142857142857134</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L223" t="n">
         <v>40.63000000000001</v>
@@ -11806,7 +11828,7 @@
         <v>57.09999999999994</v>
       </c>
       <c r="K224" t="n">
-        <v>-8.771929824561422</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L224" t="n">
         <v>40.60000000000001</v>
@@ -11857,7 +11879,7 @@
         <v>57.09999999999994</v>
       </c>
       <c r="K225" t="n">
-        <v>0</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L225" t="n">
         <v>40.57000000000001</v>
@@ -11908,7 +11930,7 @@
         <v>57.29999999999994</v>
       </c>
       <c r="K226" t="n">
-        <v>6.122448979591789</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L226" t="n">
         <v>40.52</v>
@@ -11959,7 +11981,7 @@
         <v>57.29999999999994</v>
       </c>
       <c r="K227" t="n">
-        <v>-4.54545454545462</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L227" t="n">
         <v>40.51000000000001</v>
@@ -12010,7 +12032,7 @@
         <v>57.29999999999994</v>
       </c>
       <c r="K228" t="n">
-        <v>2.439024390243767</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L228" t="n">
         <v>40.47000000000001</v>
@@ -12061,7 +12083,7 @@
         <v>57.39999999999993</v>
       </c>
       <c r="K229" t="n">
-        <v>-16.66666666666654</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L229" t="n">
         <v>40.42000000000001</v>
@@ -12112,7 +12134,7 @@
         <v>57.39999999999993</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L230" t="n">
         <v>40.39000000000001</v>
@@ -12163,7 +12185,7 @@
         <v>57.79999999999993</v>
       </c>
       <c r="K231" t="n">
-        <v>-3.448275862069016</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L231" t="n">
         <v>40.40000000000001</v>
@@ -12214,7 +12236,7 @@
         <v>57.79999999999993</v>
       </c>
       <c r="K232" t="n">
-        <v>-7.14285714285698</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>40.41000000000001</v>
@@ -12265,7 +12287,7 @@
         <v>58.19999999999993</v>
       </c>
       <c r="K233" t="n">
-        <v>25.925925925926</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L233" t="n">
         <v>40.45000000000001</v>
@@ -12316,7 +12338,7 @@
         <v>58.49999999999993</v>
       </c>
       <c r="K234" t="n">
-        <v>20</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L234" t="n">
         <v>40.53000000000002</v>
@@ -12367,7 +12389,7 @@
         <v>59.39999999999993</v>
       </c>
       <c r="K235" t="n">
-        <v>-11.7647058823529</v>
+        <v>4.761904761904859</v>
       </c>
       <c r="L235" t="n">
         <v>40.52000000000001</v>
@@ -12418,7 +12440,7 @@
         <v>60.19999999999993</v>
       </c>
       <c r="K236" t="n">
-        <v>9.523809523809652</v>
+        <v>31.03448275862098</v>
       </c>
       <c r="L236" t="n">
         <v>40.61000000000001</v>
@@ -12469,7 +12491,7 @@
         <v>60.89999999999993</v>
       </c>
       <c r="K237" t="n">
-        <v>2.22222222222225</v>
+        <v>5.555555555555643</v>
       </c>
       <c r="L237" t="n">
         <v>40.63000000000001</v>
@@ -12520,7 +12542,7 @@
         <v>61.39999999999993</v>
       </c>
       <c r="K238" t="n">
-        <v>6.382978723404191</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L238" t="n">
         <v>40.7</v>
@@ -12571,7 +12593,7 @@
         <v>61.49999999999994</v>
       </c>
       <c r="K239" t="n">
-        <v>4.166666666666574</v>
+        <v>17.07317073170721</v>
       </c>
       <c r="L239" t="n">
         <v>40.77</v>
@@ -12622,7 +12644,7 @@
         <v>61.49999999999994</v>
       </c>
       <c r="K240" t="n">
-        <v>8.695652173913009</v>
+        <v>8.108108108108025</v>
       </c>
       <c r="L240" t="n">
         <v>40.84</v>
@@ -12673,7 +12695,7 @@
         <v>61.49999999999994</v>
       </c>
       <c r="K241" t="n">
-        <v>8.695652173913009</v>
+        <v>8.108108108108025</v>
       </c>
       <c r="L241" t="n">
         <v>40.87</v>
@@ -12724,7 +12746,7 @@
         <v>61.49999999999994</v>
       </c>
       <c r="K242" t="n">
-        <v>8.695652173913009</v>
+        <v>-3.03030303030307</v>
       </c>
       <c r="L242" t="n">
         <v>40.89999999999999</v>
@@ -12775,7 +12797,7 @@
         <v>61.89999999999993</v>
       </c>
       <c r="K243" t="n">
-        <v>-2.040816326530642</v>
+        <v>-23.52941176470576</v>
       </c>
       <c r="L243" t="n">
         <v>40.84999999999999</v>
@@ -12826,7 +12848,7 @@
         <v>62.29999999999993</v>
       </c>
       <c r="K244" t="n">
-        <v>7.692307692307672</v>
+        <v>17.24137931034479</v>
       </c>
       <c r="L244" t="n">
         <v>40.80999999999999</v>
@@ -12877,7 +12899,7 @@
         <v>62.29999999999993</v>
       </c>
       <c r="K245" t="n">
-        <v>7.692307692307672</v>
+        <v>-14.28571428571448</v>
       </c>
       <c r="L245" t="n">
         <v>40.85999999999999</v>
@@ -12928,7 +12950,7 @@
         <v>62.69999999999993</v>
       </c>
       <c r="K246" t="n">
-        <v>3.703703703703762</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>40.78999999999999</v>
@@ -12979,7 +13001,7 @@
         <v>63.19999999999993</v>
       </c>
       <c r="K247" t="n">
-        <v>11.86440677966108</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>40.83999999999999</v>
@@ -13030,7 +13052,7 @@
         <v>63.69999999999993</v>
       </c>
       <c r="K248" t="n">
-        <v>3.125000000000048</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L248" t="n">
         <v>40.78999999999999</v>
@@ -13081,7 +13103,7 @@
         <v>64.19999999999993</v>
       </c>
       <c r="K249" t="n">
-        <v>11.7647058823529</v>
+        <v>3.703703703703762</v>
       </c>
       <c r="L249" t="n">
         <v>40.8</v>
@@ -13132,7 +13154,7 @@
         <v>64.19999999999993</v>
       </c>
       <c r="K250" t="n">
-        <v>11.7647058823529</v>
+        <v>3.703703703703762</v>
       </c>
       <c r="L250" t="n">
         <v>40.81</v>
@@ -13183,7 +13205,7 @@
         <v>64.59999999999994</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>-9.677419354838614</v>
       </c>
       <c r="L251" t="n">
         <v>40.78</v>
@@ -13234,7 +13256,7 @@
         <v>64.89999999999993</v>
       </c>
       <c r="K252" t="n">
-        <v>4.225352112676015</v>
+        <v>13.33333333333329</v>
       </c>
       <c r="L252" t="n">
         <v>40.78</v>
@@ -13285,7 +13307,7 @@
         <v>64.89999999999993</v>
       </c>
       <c r="K253" t="n">
-        <v>-1.492537313432856</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>40.82</v>
@@ -13336,7 +13358,7 @@
         <v>64.89999999999993</v>
       </c>
       <c r="K254" t="n">
-        <v>-6.249999999999972</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>40.82</v>
@@ -13387,7 +13409,7 @@
         <v>64.89999999999993</v>
       </c>
       <c r="K255" t="n">
-        <v>9.090909090909079</v>
+        <v>18.18181818181809</v>
       </c>
       <c r="L255" t="n">
         <v>40.82</v>
@@ -13438,7 +13460,7 @@
         <v>64.89999999999993</v>
       </c>
       <c r="K256" t="n">
-        <v>-6.382978723404342</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L256" t="n">
         <v>40.86</v>
@@ -13489,7 +13511,7 @@
         <v>64.89999999999993</v>
       </c>
       <c r="K257" t="n">
-        <v>9.999999999999964</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L257" t="n">
         <v>40.84999999999999</v>
@@ -13540,7 +13562,7 @@
         <v>64.89999999999993</v>
       </c>
       <c r="K258" t="n">
-        <v>-2.857142857142898</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L258" t="n">
         <v>40.88999999999999</v>
@@ -13591,7 +13613,7 @@
         <v>64.89999999999993</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L259" t="n">
         <v>40.87999999999999</v>
@@ -13642,7 +13664,7 @@
         <v>64.89999999999993</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L260" t="n">
         <v>40.86999999999999</v>
@@ -13692,9 +13714,7 @@
       <c r="J261" t="n">
         <v>64.89999999999993</v>
       </c>
-      <c r="K261" t="n">
-        <v>0</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>40.89999999999998</v>
       </c>
@@ -13743,9 +13763,7 @@
       <c r="J262" t="n">
         <v>64.89999999999993</v>
       </c>
-      <c r="K262" t="n">
-        <v>0</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>40.89999999999998</v>
       </c>
@@ -13794,9 +13812,7 @@
       <c r="J263" t="n">
         <v>64.89999999999993</v>
       </c>
-      <c r="K263" t="n">
-        <v>13.33333333333329</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>40.89999999999998</v>
       </c>
@@ -13845,9 +13861,7 @@
       <c r="J264" t="n">
         <v>64.89999999999993</v>
       </c>
-      <c r="K264" t="n">
-        <v>0</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>40.89999999999998</v>
       </c>
@@ -13897,7 +13911,7 @@
         <v>65.09999999999994</v>
       </c>
       <c r="K265" t="n">
-        <v>7.142857142857234</v>
+        <v>100</v>
       </c>
       <c r="L265" t="n">
         <v>40.91999999999999</v>
@@ -13948,7 +13962,7 @@
         <v>65.09999999999994</v>
       </c>
       <c r="K266" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L266" t="n">
         <v>40.93999999999999</v>
@@ -13999,7 +14013,7 @@
         <v>65.09999999999994</v>
       </c>
       <c r="K267" t="n">
-        <v>5.263157894736901</v>
+        <v>100</v>
       </c>
       <c r="L267" t="n">
         <v>40.95999999999999</v>
@@ -14050,7 +14064,7 @@
         <v>65.19999999999993</v>
       </c>
       <c r="K268" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L268" t="n">
         <v>40.97</v>
@@ -14101,7 +14115,7 @@
         <v>65.19999999999993</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L269" t="n">
         <v>40.98</v>
@@ -14152,7 +14166,7 @@
         <v>65.29999999999993</v>
       </c>
       <c r="K270" t="n">
-        <v>9.090909090909268</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L270" t="n">
         <v>41.00000000000001</v>
@@ -14203,7 +14217,7 @@
         <v>65.29999999999993</v>
       </c>
       <c r="K271" t="n">
-        <v>71.42857142857258</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L271" t="n">
         <v>41.02000000000001</v>
@@ -14356,7 +14370,7 @@
         <v>65.49999999999991</v>
       </c>
       <c r="K274" t="n">
-        <v>66.66666666666863</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L274" t="n">
         <v>41.10000000000002</v>
@@ -14407,7 +14421,7 @@
         <v>65.79999999999991</v>
       </c>
       <c r="K275" t="n">
-        <v>11.11111111111155</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L275" t="n">
         <v>41.09000000000002</v>
@@ -14458,7 +14472,7 @@
         <v>66.09999999999991</v>
       </c>
       <c r="K276" t="n">
-        <v>33.33333333333393</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L276" t="n">
         <v>41.11000000000002</v>
@@ -14509,7 +14523,7 @@
         <v>66.39999999999991</v>
       </c>
       <c r="K277" t="n">
-        <v>6.666666666666887</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>41.10000000000002</v>
@@ -14560,7 +14574,7 @@
         <v>66.39999999999991</v>
       </c>
       <c r="K278" t="n">
-        <v>6.666666666666887</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>41.10000000000002</v>
@@ -14611,7 +14625,7 @@
         <v>66.49999999999991</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L279" t="n">
         <v>41.09000000000002</v>
@@ -14662,7 +14676,7 @@
         <v>66.49999999999991</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L280" t="n">
         <v>41.07000000000001</v>
@@ -14713,7 +14727,7 @@
         <v>66.59999999999991</v>
       </c>
       <c r="K281" t="n">
-        <v>-5.882352941176642</v>
+        <v>-23.07692307692371</v>
       </c>
       <c r="L281" t="n">
         <v>41.04000000000001</v>
@@ -14764,7 +14778,7 @@
         <v>66.6999999999999</v>
       </c>
       <c r="K282" t="n">
-        <v>-11.11111111111107</v>
+        <v>-28.57142857142894</v>
       </c>
       <c r="L282" t="n">
         <v>41.00000000000001</v>
@@ -14815,7 +14829,7 @@
         <v>66.6999999999999</v>
       </c>
       <c r="K283" t="n">
-        <v>-11.11111111111107</v>
+        <v>-50</v>
       </c>
       <c r="L283" t="n">
         <v>40.96</v>
@@ -14866,7 +14880,7 @@
         <v>66.7999999999999</v>
       </c>
       <c r="K284" t="n">
-        <v>-5.263157894737019</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L284" t="n">
         <v>40.91</v>
@@ -14917,7 +14931,7 @@
         <v>66.89999999999989</v>
       </c>
       <c r="K285" t="n">
-        <v>-11.11111111111155</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L285" t="n">
         <v>40.9</v>
@@ -14968,7 +14982,7 @@
         <v>67.2999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>-27.27272727272783</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L286" t="n">
         <v>40.82</v>
@@ -15019,7 +15033,7 @@
         <v>67.39999999999989</v>
       </c>
       <c r="K287" t="n">
-        <v>-21.73913043478304</v>
+        <v>-40.00000000000043</v>
       </c>
       <c r="L287" t="n">
         <v>40.78</v>
@@ -15070,7 +15084,7 @@
         <v>67.49999999999989</v>
       </c>
       <c r="K288" t="n">
-        <v>-13.0434782608697</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L288" t="n">
         <v>40.75</v>
@@ -15121,7 +15135,7 @@
         <v>67.99999999999989</v>
       </c>
       <c r="K289" t="n">
-        <v>7.14285714285736</v>
+        <v>20.00000000000066</v>
       </c>
       <c r="L289" t="n">
         <v>40.78</v>
@@ -15172,7 +15186,7 @@
         <v>68.09999999999988</v>
       </c>
       <c r="K290" t="n">
-        <v>7.142857142857107</v>
+        <v>33.33333333333396</v>
       </c>
       <c r="L290" t="n">
         <v>40.82000000000001</v>
@@ -15223,7 +15237,7 @@
         <v>68.49999999999989</v>
       </c>
       <c r="K291" t="n">
-        <v>18.75000000000028</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L291" t="n">
         <v>40.91</v>
@@ -15274,7 +15288,7 @@
         <v>68.59999999999988</v>
       </c>
       <c r="K292" t="n">
-        <v>15.15151515151536</v>
+        <v>47.36842105263207</v>
       </c>
       <c r="L292" t="n">
         <v>41.00000000000001</v>
@@ -15325,7 +15339,7 @@
         <v>68.89999999999989</v>
       </c>
       <c r="K293" t="n">
-        <v>5.55555555555549</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L293" t="n">
         <v>41.06000000000001</v>
@@ -15376,7 +15390,7 @@
         <v>68.89999999999989</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L294" t="n">
         <v>41.11000000000001</v>
@@ -15427,7 +15441,7 @@
         <v>68.99999999999989</v>
       </c>
       <c r="K295" t="n">
-        <v>6.250000000000139</v>
+        <v>41.17647058823574</v>
       </c>
       <c r="L295" t="n">
         <v>41.14000000000001</v>
@@ -15478,7 +15492,7 @@
         <v>68.99999999999989</v>
       </c>
       <c r="K296" t="n">
-        <v>-3.448275862068797</v>
+        <v>37.50000000000022</v>
       </c>
       <c r="L296" t="n">
         <v>41.21000000000001</v>
@@ -15529,7 +15543,7 @@
         <v>69.09999999999988</v>
       </c>
       <c r="K297" t="n">
-        <v>3.703703703703792</v>
+        <v>25</v>
       </c>
       <c r="L297" t="n">
         <v>41.26000000000001</v>
@@ -15580,7 +15594,7 @@
         <v>69.19999999999987</v>
       </c>
       <c r="K298" t="n">
-        <v>7.142857142857324</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>41.31000000000001</v>
@@ -15631,7 +15645,7 @@
         <v>69.29999999999987</v>
       </c>
       <c r="K299" t="n">
-        <v>7.14285714285736</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L299" t="n">
         <v>41.30000000000001</v>
@@ -15682,7 +15696,7 @@
         <v>69.29999999999987</v>
       </c>
       <c r="K300" t="n">
-        <v>7.14285714285736</v>
+        <v>-75.00000000000178</v>
       </c>
       <c r="L300" t="n">
         <v>41.28000000000002</v>
@@ -15733,7 +15747,7 @@
         <v>69.29999999999987</v>
       </c>
       <c r="K301" t="n">
-        <v>11.11111111111143</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L301" t="n">
         <v>41.22000000000001</v>
@@ -15784,7 +15798,7 @@
         <v>69.29999999999987</v>
       </c>
       <c r="K302" t="n">
-        <v>15.38461538461553</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L302" t="n">
         <v>41.17000000000002</v>
@@ -15835,7 +15849,7 @@
         <v>69.29999999999987</v>
       </c>
       <c r="K303" t="n">
-        <v>15.38461538461553</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L303" t="n">
         <v>41.15000000000002</v>
@@ -15886,7 +15900,7 @@
         <v>69.29999999999987</v>
       </c>
       <c r="K304" t="n">
-        <v>12.00000000000031</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L304" t="n">
         <v>41.13000000000002</v>
@@ -15937,7 +15951,7 @@
         <v>69.29999999999987</v>
       </c>
       <c r="K305" t="n">
-        <v>8.333333333333531</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L305" t="n">
         <v>41.12000000000002</v>
@@ -15988,7 +16002,7 @@
         <v>69.29999999999987</v>
       </c>
       <c r="K306" t="n">
-        <v>30.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>41.11000000000003</v>
@@ -16039,7 +16053,7 @@
         <v>69.29999999999987</v>
       </c>
       <c r="K307" t="n">
-        <v>26.31578947368453</v>
+        <v>-100.0000000000071</v>
       </c>
       <c r="L307" t="n">
         <v>41.11000000000003</v>
@@ -16089,9 +16103,7 @@
       <c r="J308" t="n">
         <v>69.29999999999987</v>
       </c>
-      <c r="K308" t="n">
-        <v>22.22222222222235</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>41.10000000000003</v>
       </c>
@@ -16140,9 +16152,7 @@
       <c r="J309" t="n">
         <v>69.29999999999987</v>
       </c>
-      <c r="K309" t="n">
-        <v>-7.692307692307902</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>41.10000000000003</v>
       </c>
@@ -16192,7 +16202,7 @@
         <v>69.39999999999986</v>
       </c>
       <c r="K310" t="n">
-        <v>-7.692307692307356</v>
+        <v>100.0000000000071</v>
       </c>
       <c r="L310" t="n">
         <v>41.11000000000003</v>
@@ -16243,7 +16253,7 @@
         <v>69.39999999999986</v>
       </c>
       <c r="K311" t="n">
-        <v>-55.55555555555696</v>
+        <v>100.0000000000071</v>
       </c>
       <c r="L311" t="n">
         <v>41.12000000000002</v>
@@ -16294,7 +16304,7 @@
         <v>69.59999999999987</v>
       </c>
       <c r="K312" t="n">
-        <v>-60.00000000000099</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L312" t="n">
         <v>41.11000000000002</v>
@@ -16345,7 +16355,7 @@
         <v>69.59999999999987</v>
       </c>
       <c r="K313" t="n">
-        <v>-42.85714285714401</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L313" t="n">
         <v>41.10000000000002</v>
@@ -16396,7 +16406,7 @@
         <v>69.79999999999987</v>
       </c>
       <c r="K314" t="n">
-        <v>-11.11111111111076</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L314" t="n">
         <v>41.11000000000001</v>
@@ -16447,7 +16457,7 @@
         <v>69.89999999999986</v>
       </c>
       <c r="K315" t="n">
-        <v>-11.11111111111155</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>41.11000000000001</v>
@@ -16498,7 +16508,7 @@
         <v>69.89999999999986</v>
       </c>
       <c r="K316" t="n">
-        <v>-11.11111111111155</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>41.11000000000001</v>
@@ -16549,7 +16559,7 @@
         <v>69.99999999999986</v>
       </c>
       <c r="K317" t="n">
-        <v>11.11111111111155</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L317" t="n">
         <v>41.12000000000001</v>
@@ -16600,7 +16610,7 @@
         <v>69.99999999999986</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L318" t="n">
         <v>41.13000000000001</v>
@@ -16651,7 +16661,7 @@
         <v>70.19999999999986</v>
       </c>
       <c r="K319" t="n">
-        <v>-11.11111111111137</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L319" t="n">
         <v>41.12</v>
@@ -16702,7 +16712,7 @@
         <v>70.19999999999986</v>
       </c>
       <c r="K320" t="n">
-        <v>-11.11111111111137</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L320" t="n">
         <v>41.10000000000001</v>
@@ -16753,7 +16763,7 @@
         <v>70.29999999999987</v>
       </c>
       <c r="K321" t="n">
-        <v>-20.00000000000028</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L321" t="n">
         <v>41.07000000000001</v>
@@ -16804,7 +16814,7 @@
         <v>70.49999999999987</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L322" t="n">
         <v>41.08000000000001</v>
@@ -16855,7 +16865,7 @@
         <v>70.69999999999987</v>
       </c>
       <c r="K323" t="n">
-        <v>-14.28571428571443</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L323" t="n">
         <v>41.07000000000001</v>
@@ -16906,7 +16916,7 @@
         <v>70.89999999999986</v>
       </c>
       <c r="K324" t="n">
-        <v>-25</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L324" t="n">
         <v>41.02</v>
@@ -16957,7 +16967,7 @@
         <v>71.39999999999986</v>
       </c>
       <c r="K325" t="n">
-        <v>4.761904761904842</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L325" t="n">
         <v>41.03</v>
@@ -17008,7 +17018,7 @@
         <v>71.59999999999987</v>
       </c>
       <c r="K326" t="n">
-        <v>-4.347826086956589</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L326" t="n">
         <v>41.02</v>
@@ -17059,7 +17069,7 @@
         <v>71.79999999999987</v>
       </c>
       <c r="K327" t="n">
-        <v>-12.00000000000017</v>
+        <v>-22.2222222222224</v>
       </c>
       <c r="L327" t="n">
         <v>40.98</v>
@@ -17110,7 +17120,7 @@
         <v>72.19999999999987</v>
       </c>
       <c r="K328" t="n">
-        <v>3.448275862069008</v>
+        <v>10.00000000000007</v>
       </c>
       <c r="L328" t="n">
         <v>40.98</v>
@@ -17161,7 +17171,7 @@
         <v>72.29999999999987</v>
       </c>
       <c r="K329" t="n">
-        <v>6.666666666666525</v>
+        <v>14.28571428571409</v>
       </c>
       <c r="L329" t="n">
         <v>41.01000000000001</v>
@@ -17212,7 +17222,7 @@
         <v>72.29999999999987</v>
       </c>
       <c r="K330" t="n">
-        <v>3.448275862068763</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L330" t="n">
         <v>41.04000000000001</v>
@@ -17263,7 +17273,7 @@
         <v>72.39999999999986</v>
       </c>
       <c r="K331" t="n">
-        <v>6.666666666666525</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L331" t="n">
         <v>41.09</v>
@@ -17314,7 +17324,7 @@
         <v>72.49999999999986</v>
       </c>
       <c r="K332" t="n">
-        <v>10.34482758620683</v>
+        <v>22.22222222222235</v>
       </c>
       <c r="L332" t="n">
         <v>41.11</v>
@@ -17365,7 +17375,7 @@
         <v>72.49999999999986</v>
       </c>
       <c r="K333" t="n">
-        <v>10.34482758620683</v>
+        <v>37.49999999999978</v>
       </c>
       <c r="L333" t="n">
         <v>41.15000000000001</v>
@@ -17467,7 +17477,7 @@
         <v>72.59999999999985</v>
       </c>
       <c r="K335" t="n">
-        <v>3.703703703703772</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L335" t="n">
         <v>41.2</v>
@@ -17518,7 +17528,7 @@
         <v>72.59999999999985</v>
       </c>
       <c r="K336" t="n">
-        <v>3.703703703703772</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L336" t="n">
         <v>41.22000000000001</v>
@@ -17569,7 +17579,7 @@
         <v>72.79999999999984</v>
       </c>
       <c r="K337" t="n">
-        <v>7.142857142857034</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L337" t="n">
         <v>41.28</v>
@@ -17620,7 +17630,7 @@
         <v>72.89999999999984</v>
       </c>
       <c r="K338" t="n">
-        <v>3.448275862068797</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>41.29000000000001</v>
@@ -17671,7 +17681,7 @@
         <v>72.89999999999984</v>
       </c>
       <c r="K339" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L339" t="n">
         <v>41.29000000000001</v>
@@ -17722,7 +17732,7 @@
         <v>72.89999999999984</v>
       </c>
       <c r="K340" t="n">
-        <v>11.11111111111111</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L340" t="n">
         <v>41.29000000000001</v>
@@ -17773,7 +17783,7 @@
         <v>72.89999999999984</v>
       </c>
       <c r="K341" t="n">
-        <v>15.38461538461553</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>41.28000000000001</v>
@@ -17824,7 +17834,7 @@
         <v>72.99999999999983</v>
       </c>
       <c r="K342" t="n">
-        <v>4.000000000000125</v>
+        <v>-20</v>
       </c>
       <c r="L342" t="n">
         <v>41.27</v>
@@ -17875,7 +17885,7 @@
         <v>73.19999999999983</v>
       </c>
       <c r="K343" t="n">
-        <v>4.000000000000125</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L343" t="n">
         <v>41.24</v>
@@ -17926,7 +17936,7 @@
         <v>73.59999999999982</v>
       </c>
       <c r="K344" t="n">
-        <v>25.92592592592615</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L344" t="n">
         <v>41.26000000000001</v>
@@ -17977,7 +17987,7 @@
         <v>74.39999999999982</v>
       </c>
       <c r="K345" t="n">
-        <v>-20.00000000000033</v>
+        <v>-33.33333333333399</v>
       </c>
       <c r="L345" t="n">
         <v>41.2</v>
@@ -18028,7 +18038,7 @@
         <v>74.49999999999983</v>
       </c>
       <c r="K346" t="n">
-        <v>-10.34482758620693</v>
+        <v>-41.17647058823532</v>
       </c>
       <c r="L346" t="n">
         <v>41.15000000000001</v>
@@ -18079,7 +18089,7 @@
         <v>74.89999999999984</v>
       </c>
       <c r="K347" t="n">
-        <v>9.677419354838953</v>
+        <v>-9.999999999999787</v>
       </c>
       <c r="L347" t="n">
         <v>41.12000000000001</v>
@@ -18130,7 +18140,7 @@
         <v>74.89999999999984</v>
       </c>
       <c r="K348" t="n">
-        <v>-3.703703703703811</v>
+        <v>-9.999999999999787</v>
       </c>
       <c r="L348" t="n">
         <v>41.10000000000001</v>
@@ -18181,7 +18191,7 @@
         <v>74.89999999999984</v>
       </c>
       <c r="K349" t="n">
-        <v>-7.692307692307629</v>
+        <v>-9.999999999999787</v>
       </c>
       <c r="L349" t="n">
         <v>41.08000000000001</v>
@@ -18232,7 +18242,7 @@
         <v>75.19999999999985</v>
       </c>
       <c r="K350" t="n">
-        <v>-17.24137931034496</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L350" t="n">
         <v>41.03000000000002</v>
@@ -18283,7 +18293,7 @@
         <v>75.29999999999984</v>
       </c>
       <c r="K351" t="n">
-        <v>-24.1379310344828</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L351" t="n">
         <v>40.97000000000001</v>
@@ -18334,7 +18344,7 @@
         <v>75.29999999999984</v>
       </c>
       <c r="K352" t="n">
-        <v>-21.42857142857136</v>
+        <v>-14.28571428571409</v>
       </c>
       <c r="L352" t="n">
         <v>40.92000000000001</v>
@@ -18385,7 +18395,7 @@
         <v>75.49999999999984</v>
       </c>
       <c r="K353" t="n">
-        <v>-26.6666666666667</v>
+        <v>-47.36842105263101</v>
       </c>
       <c r="L353" t="n">
         <v>40.87000000000001</v>
@@ -18436,7 +18446,7 @@
         <v>75.69999999999985</v>
       </c>
       <c r="K354" t="n">
-        <v>-16.12903225806455</v>
+        <v>7.69230769230765</v>
       </c>
       <c r="L354" t="n">
         <v>40.80000000000001</v>
@@ -18487,7 +18497,7 @@
         <v>75.69999999999985</v>
       </c>
       <c r="K355" t="n">
-        <v>-16.12903225806455</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>40.81000000000001</v>
@@ -18538,7 +18548,7 @@
         <v>75.79999999999984</v>
       </c>
       <c r="K356" t="n">
-        <v>-18.75000000000011</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L356" t="n">
         <v>40.80000000000001</v>
@@ -18589,7 +18599,7 @@
         <v>75.89999999999984</v>
       </c>
       <c r="K357" t="n">
-        <v>-22.58064516129023</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L357" t="n">
         <v>40.76000000000001</v>
@@ -18644,7 +18654,7 @@
         <v>75.99999999999983</v>
       </c>
       <c r="K358" t="n">
-        <v>-16.12903225806455</v>
+        <v>-27.2727272727278</v>
       </c>
       <c r="L358" t="n">
         <v>40.73</v>
@@ -18701,7 +18711,7 @@
         <v>75.99999999999983</v>
       </c>
       <c r="K359" t="n">
-        <v>-16.12903225806455</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>40.7</v>
@@ -18760,7 +18770,7 @@
         <v>76.39999999999984</v>
       </c>
       <c r="K360" t="n">
-        <v>-2.857142857142695</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L360" t="n">
         <v>40.74</v>
@@ -18817,7 +18827,7 @@
         <v>76.49999999999983</v>
       </c>
       <c r="K361" t="n">
-        <v>-5.555555555555445</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L361" t="n">
         <v>40.78000000000001</v>
@@ -18876,7 +18886,7 @@
         <v>76.49999999999983</v>
       </c>
       <c r="K362" t="n">
-        <v>-2.857142857142898</v>
+        <v>60.00000000000099</v>
       </c>
       <c r="L362" t="n">
         <v>40.82000000000001</v>
@@ -18933,7 +18943,7 @@
         <v>76.69999999999983</v>
       </c>
       <c r="K363" t="n">
-        <v>-2.857142857142898</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L363" t="n">
         <v>40.86000000000001</v>
@@ -18990,7 +19000,7 @@
         <v>76.69999999999983</v>
       </c>
       <c r="K364" t="n">
-        <v>-16.12903225806447</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L364" t="n">
         <v>40.88000000000001</v>
@@ -19047,7 +19057,7 @@
         <v>76.89999999999984</v>
       </c>
       <c r="K365" t="n">
-        <v>19.99999999999989</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L365" t="n">
         <v>40.92000000000001</v>
@@ -19106,7 +19116,7 @@
         <v>77.19999999999985</v>
       </c>
       <c r="K366" t="n">
-        <v>3.70370370370347</v>
+        <v>7.692307692307187</v>
       </c>
       <c r="L366" t="n">
         <v>40.94000000000001</v>
@@ -19163,7 +19173,7 @@
         <v>77.29999999999984</v>
       </c>
       <c r="K367" t="n">
-        <v>-16.66666666666657</v>
+        <v>-7.692307692307187</v>
       </c>
       <c r="L367" t="n">
         <v>40.94000000000001</v>
@@ -19220,7 +19230,7 @@
         <v>77.29999999999984</v>
       </c>
       <c r="K368" t="n">
-        <v>-16.66666666666657</v>
+        <v>-7.692307692307187</v>
       </c>
       <c r="L368" t="n">
         <v>40.93000000000001</v>
@@ -19279,7 +19289,7 @@
         <v>77.29999999999984</v>
       </c>
       <c r="K369" t="n">
-        <v>-16.66666666666657</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L369" t="n">
         <v>40.92</v>
@@ -19342,7 +19352,7 @@
         <v>77.49999999999984</v>
       </c>
       <c r="K370" t="n">
-        <v>-13.04347826086946</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L370" t="n">
         <v>40.85000000000001</v>
@@ -19403,7 +19413,7 @@
         <v>77.59999999999985</v>
       </c>
       <c r="K371" t="n">
-        <v>-4.347826086956561</v>
+        <v>-45.45454545454452</v>
       </c>
       <c r="L371" t="n">
         <v>40.8</v>
@@ -19462,7 +19472,7 @@
         <v>77.99999999999986</v>
       </c>
       <c r="K372" t="n">
-        <v>11.11111111111093</v>
+        <v>7.69230769230765</v>
       </c>
       <c r="L372" t="n">
         <v>40.79000000000001</v>
@@ -19525,7 +19535,7 @@
         <v>78.39999999999986</v>
       </c>
       <c r="K373" t="n">
-        <v>3.448275862068991</v>
+        <v>-17.64705882352892</v>
       </c>
       <c r="L373" t="n">
         <v>40.76000000000001</v>
@@ -19588,7 +19598,7 @@
         <v>78.49999999999986</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L374" t="n">
         <v>40.74000000000001</v>
@@ -19649,7 +19659,7 @@
         <v>78.69999999999986</v>
       </c>
       <c r="K375" t="n">
-        <v>-6.66666666666673</v>
+        <v>-19.99999999999962</v>
       </c>
       <c r="L375" t="n">
         <v>40.68000000000001</v>
@@ -19712,7 +19722,7 @@
         <v>79.19999999999986</v>
       </c>
       <c r="K376" t="n">
-        <v>11.76470588235283</v>
+        <v>15.78947368421021</v>
       </c>
       <c r="L376" t="n">
         <v>40.7</v>
@@ -19775,7 +19785,7 @@
         <v>79.19999999999986</v>
       </c>
       <c r="K377" t="n">
-        <v>9.090909090908934</v>
+        <v>15.78947368421021</v>
       </c>
       <c r="L377" t="n">
         <v>40.73</v>
@@ -19838,7 +19848,7 @@
         <v>79.29999999999987</v>
       </c>
       <c r="K378" t="n">
-        <v>9.090909090909111</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L378" t="n">
         <v>40.77000000000001</v>
@@ -19901,7 +19911,7 @@
         <v>79.29999999999987</v>
       </c>
       <c r="K379" t="n">
-        <v>9.090909090909111</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L379" t="n">
         <v>40.81000000000002</v>
@@ -19964,7 +19974,7 @@
         <v>79.29999999999987</v>
       </c>
       <c r="K380" t="n">
-        <v>-3.448275862068974</v>
+        <v>29.41176470588206</v>
       </c>
       <c r="L380" t="n">
         <v>40.87000000000002</v>
@@ -20027,7 +20037,7 @@
         <v>79.39999999999986</v>
       </c>
       <c r="K381" t="n">
-        <v>3.448275862068974</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L381" t="n">
         <v>40.93000000000001</v>
@@ -20086,7 +20096,7 @@
         <v>79.39999999999986</v>
       </c>
       <c r="K382" t="n">
-        <v>3.448275862068974</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L382" t="n">
         <v>40.95000000000001</v>
@@ -20149,7 +20159,7 @@
         <v>79.39999999999986</v>
       </c>
       <c r="K383" t="n">
-        <v>11.11111111111114</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L383" t="n">
         <v>41.01000000000001</v>
@@ -20212,7 +20222,7 @@
         <v>79.59999999999985</v>
       </c>
       <c r="K384" t="n">
-        <v>17.24137931034471</v>
+        <v>100.0000000000008</v>
       </c>
       <c r="L384" t="n">
         <v>41.08000000000001</v>
@@ -20273,7 +20283,7 @@
         <v>79.69999999999985</v>
       </c>
       <c r="K385" t="n">
-        <v>14.28571428571418</v>
+        <v>100.0000000000028</v>
       </c>
       <c r="L385" t="n">
         <v>41.18000000000001</v>
@@ -20336,7 +20346,7 @@
         <v>79.69999999999985</v>
       </c>
       <c r="K386" t="n">
-        <v>28.00000000000011</v>
+        <v>100.0000000000028</v>
       </c>
       <c r="L386" t="n">
         <v>41.23</v>
@@ -20393,7 +20403,7 @@
         <v>79.89999999999985</v>
       </c>
       <c r="K387" t="n">
-        <v>38.46153846153834</v>
+        <v>100.0000000000036</v>
       </c>
       <c r="L387" t="n">
         <v>41.3</v>
@@ -20452,7 +20462,7 @@
         <v>80.09999999999985</v>
       </c>
       <c r="K388" t="n">
-        <v>42.85714285714253</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L388" t="n">
         <v>41.38</v>
@@ -20509,7 +20519,7 @@
         <v>80.29999999999986</v>
       </c>
       <c r="K389" t="n">
-        <v>46.6666666666664</v>
+        <v>100.0000000000014</v>
       </c>
       <c r="L389" t="n">
         <v>41.48</v>
@@ -20568,7 +20578,7 @@
         <v>80.89999999999986</v>
       </c>
       <c r="K390" t="n">
-        <v>64.70588235294088</v>
+        <v>100</v>
       </c>
       <c r="L390" t="n">
         <v>41.64</v>
@@ -20627,7 +20637,7 @@
         <v>81.39999999999986</v>
       </c>
       <c r="K391" t="n">
-        <v>42.10526315789465</v>
+        <v>50</v>
       </c>
       <c r="L391" t="n">
         <v>41.73999999999999</v>
@@ -20684,7 +20694,7 @@
         <v>81.59999999999987</v>
       </c>
       <c r="K392" t="n">
-        <v>27.77777777777771</v>
+        <v>36.36363636363619</v>
       </c>
       <c r="L392" t="n">
         <v>41.82</v>
@@ -20741,7 +20751,7 @@
         <v>82.39999999999986</v>
       </c>
       <c r="K393" t="n">
-        <v>15.00000000000004</v>
+        <v>-7.142857142856962</v>
       </c>
       <c r="L393" t="n">
         <v>41.82</v>
@@ -20798,7 +20808,7 @@
         <v>82.59999999999985</v>
       </c>
       <c r="K394" t="n">
-        <v>17.07317073170724</v>
+        <v>-3.448275862069008</v>
       </c>
       <c r="L394" t="n">
         <v>41.82</v>
@@ -20855,7 +20865,7 @@
         <v>83.69999999999985</v>
       </c>
       <c r="K395" t="n">
-        <v>40.00000000000011</v>
+        <v>25</v>
       </c>
       <c r="L395" t="n">
         <v>41.92</v>
@@ -20912,7 +20922,7 @@
         <v>84.39999999999985</v>
       </c>
       <c r="K396" t="n">
-        <v>15.38461538461536</v>
+        <v>2.222222222222096</v>
       </c>
       <c r="L396" t="n">
         <v>41.95</v>
@@ -20969,7 +20979,7 @@
         <v>84.69999999999985</v>
       </c>
       <c r="K397" t="n">
-        <v>9.090909090909115</v>
+        <v>-8.695652173913023</v>
       </c>
       <c r="L397" t="n">
         <v>41.93</v>
@@ -21026,7 +21036,7 @@
         <v>85.49999999999984</v>
       </c>
       <c r="K398" t="n">
-        <v>19.35483870967743</v>
+        <v>3.846153846153773</v>
       </c>
       <c r="L398" t="n">
         <v>41.97000000000001</v>
@@ -21083,7 +21093,7 @@
         <v>85.89999999999984</v>
       </c>
       <c r="K399" t="n">
-        <v>12.12121212121214</v>
+        <v>-16.00000000000017</v>
       </c>
       <c r="L399" t="n">
         <v>41.95</v>
@@ -21140,7 +21150,7 @@
         <v>85.99999999999983</v>
       </c>
       <c r="K400" t="n">
-        <v>13.43283582089558</v>
+        <v>-4.347826086956616</v>
       </c>
       <c r="L400" t="n">
         <v>41.88</v>
@@ -21197,7 +21207,7 @@
         <v>85.99999999999983</v>
       </c>
       <c r="K401" t="n">
-        <v>12.12121212121214</v>
+        <v>0</v>
       </c>
       <c r="L401" t="n">
         <v>41.86</v>
@@ -21254,7 +21264,7 @@
         <v>86.29999999999983</v>
       </c>
       <c r="K402" t="n">
-        <v>7.246376811594242</v>
+        <v>12.82051282051294</v>
       </c>
       <c r="L402" t="n">
         <v>41.83</v>
@@ -21311,7 +21321,7 @@
         <v>86.69999999999982</v>
       </c>
       <c r="K403" t="n">
-        <v>12.32876712328773</v>
+        <v>17.07317073170753</v>
       </c>
       <c r="L403" t="n">
         <v>41.92</v>
@@ -21368,7 +21378,7 @@
         <v>86.79999999999981</v>
       </c>
       <c r="K404" t="n">
-        <v>11.11111111111123</v>
+        <v>-9.677419354838724</v>
       </c>
       <c r="L404" t="n">
         <v>42.00000000000001</v>
@@ -21425,7 +21435,7 @@
         <v>87.29999999999981</v>
       </c>
       <c r="K405" t="n">
-        <v>15.78947368421063</v>
+        <v>31.03448275862128</v>
       </c>
       <c r="L405" t="n">
         <v>42.02</v>
@@ -21482,7 +21492,7 @@
         <v>87.89999999999981</v>
       </c>
       <c r="K406" t="n">
-        <v>7.31707317073176</v>
+        <v>18.75000000000028</v>
       </c>
       <c r="L406" t="n">
         <v>42.05</v>
@@ -21539,7 +21549,7 @@
         <v>87.9999999999998</v>
       </c>
       <c r="K407" t="n">
-        <v>3.703703703703691</v>
+        <v>-12.00000000000009</v>
       </c>
       <c r="L407" t="n">
         <v>42.10000000000001</v>
@@ -21596,7 +21606,7 @@
         <v>87.9999999999998</v>
       </c>
       <c r="K408" t="n">
-        <v>1.265822784810153</v>
+        <v>4.761904761904907</v>
       </c>
       <c r="L408" t="n">
         <v>42.07000000000001</v>
@@ -21653,7 +21663,7 @@
         <v>88.2999999999998</v>
       </c>
       <c r="K409" t="n">
-        <v>-5.000000000000018</v>
+        <v>-13.04347826086962</v>
       </c>
       <c r="L409" t="n">
         <v>42.05</v>
@@ -21710,7 +21720,7 @@
         <v>88.2999999999998</v>
       </c>
       <c r="K410" t="n">
-        <v>-13.51351351351363</v>
+        <v>-13.04347826086962</v>
       </c>
       <c r="L410" t="n">
         <v>42.02</v>
@@ -21761,7 +21771,7 @@
         <v>89.0999999999998</v>
       </c>
       <c r="K411" t="n">
-        <v>3.896103896103894</v>
+        <v>28.57142857142879</v>
       </c>
       <c r="L411" t="n">
         <v>42.07000000000001</v>
@@ -21812,7 +21822,7 @@
         <v>89.89999999999979</v>
       </c>
       <c r="K412" t="n">
-        <v>-3.614457831325299</v>
+        <v>-12.50000000000006</v>
       </c>
       <c r="L412" t="n">
         <v>42.07000000000001</v>
@@ -21863,7 +21873,7 @@
         <v>90.69999999999979</v>
       </c>
       <c r="K413" t="n">
-        <v>15.66265060240974</v>
+        <v>7.692307692307663</v>
       </c>
       <c r="L413" t="n">
         <v>42.11</v>
@@ -21914,7 +21924,7 @@
         <v>90.69999999999979</v>
       </c>
       <c r="K414" t="n">
-        <v>13.58024691358037</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L414" t="n">
         <v>42.14</v>
@@ -21965,7 +21975,7 @@
         <v>90.69999999999979</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L415" t="n">
         <v>42.12</v>
@@ -22016,7 +22026,7 @@
         <v>90.69999999999979</v>
       </c>
       <c r="K416" t="n">
-        <v>11.11111111111126</v>
+        <v>18.51851851851859</v>
       </c>
       <c r="L416" t="n">
         <v>42.16</v>
@@ -22067,7 +22077,7 @@
         <v>90.89999999999979</v>
       </c>
       <c r="K417" t="n">
-        <v>12.90322580645168</v>
+        <v>10.34482758620683</v>
       </c>
       <c r="L417" t="n">
         <v>42.19</v>
@@ -22118,7 +22128,7 @@
         <v>90.89999999999979</v>
       </c>
       <c r="K418" t="n">
-        <v>0</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L418" t="n">
         <v>42.22000000000001</v>
@@ -22169,7 +22179,7 @@
         <v>90.89999999999979</v>
       </c>
       <c r="K419" t="n">
-        <v>8.000000000000041</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L419" t="n">
         <v>42.28000000000001</v>
@@ -22220,7 +22230,7 @@
         <v>91.39999999999979</v>
       </c>
       <c r="K420" t="n">
-        <v>-3.703703703703782</v>
+        <v>-30.43478260869582</v>
       </c>
       <c r="L420" t="n">
         <v>42.29000000000001</v>

--- a/BackTest/2019-11-02 BackTest TRV.xlsx
+++ b/BackTest/2019-11-02 BackTest TRV.xlsx
@@ -1921,13 +1921,17 @@
         <v>42.14833333333332</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K44" t="n">
+        <v>40.7</v>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -1956,14 +1960,22 @@
         <v>42.11833333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K45" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,8 +2009,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2032,8 +2050,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2067,8 +2091,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2102,8 +2132,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2173,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2172,8 +2214,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2207,8 +2255,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2242,8 +2296,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2277,8 +2337,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2312,8 +2378,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2419,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2460,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2501,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2542,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2583,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2522,8 +2624,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,8 +2665,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,8 +2706,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2627,8 +2747,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2662,8 +2788,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +2829,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +2911,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +2952,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +2993,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2872,8 +3034,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2907,8 +3075,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2942,8 +3116,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2977,8 +3157,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3012,8 +3198,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3047,8 +3239,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3082,8 +3280,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3117,8 +3321,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3152,8 +3362,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3187,8 +3403,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3222,8 +3444,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3257,8 +3485,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3526,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3327,8 +3567,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3362,8 +3608,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3397,8 +3649,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3432,8 +3690,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3467,8 +3731,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3502,8 +3772,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3537,8 +3813,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +3854,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3607,8 +3895,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3642,8 +3936,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3677,8 +3977,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3712,8 +4018,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3747,8 +4059,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3782,8 +4100,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3817,8 +4141,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3852,8 +4182,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4223,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3922,8 +4264,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3957,8 +4305,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3992,8 +4346,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4027,8 +4387,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4428,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4097,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4132,8 +4510,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4167,8 +4551,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4202,8 +4592,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4633,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4272,8 +4674,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4307,8 +4715,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4342,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4377,8 +4797,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4412,8 +4838,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4879,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4482,8 +4920,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4517,8 +4961,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4552,8 +5002,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4587,8 +5043,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4622,8 +5084,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +5125,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4692,8 +5166,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4797,8 +5289,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +5330,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4867,8 +5371,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4902,8 +5412,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4937,8 +5453,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4972,8 +5494,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5535,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5576,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5617,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5112,8 +5658,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +5699,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5740,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +5781,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5252,8 +5822,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5287,8 +5863,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5322,8 +5904,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5357,8 +5945,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +5986,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5427,8 +6027,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5462,8 +6068,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5532,8 +6150,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5567,8 +6191,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6232,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +6273,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5672,8 +6314,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5707,8 +6355,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5742,8 +6396,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5777,8 +6437,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +6478,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5847,8 +6519,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +6560,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6601,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5952,8 +6642,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5987,8 +6683,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6022,8 +6724,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6051,18 +6759,20 @@
         <v>41.06833333333331</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>40.4</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="L162" t="inlineStr"/>
+        <v>40.7</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6090,20 +6800,18 @@
         <v>41.05666666666664</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M163" t="n">
@@ -6133,16 +6841,14 @@
         <v>41.03166666666664</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>40.4</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6176,16 +6882,14 @@
         <v>41.00666666666665</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>40.4</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6219,16 +6923,14 @@
         <v>40.97833333333332</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>40.4</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6262,16 +6964,14 @@
         <v>40.97999999999998</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>40.3</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6305,16 +7005,14 @@
         <v>40.95499999999998</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>40.4</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6348,16 +7046,14 @@
         <v>40.94833333333331</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>40.5</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6391,16 +7087,14 @@
         <v>40.93999999999998</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>40.5</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6434,16 +7128,14 @@
         <v>40.93166666666664</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>40.6</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6477,16 +7169,14 @@
         <v>40.92666666666664</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>40.6</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6520,16 +7210,14 @@
         <v>40.92499999999998</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>40.6</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6563,16 +7251,14 @@
         <v>40.92166666666665</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6606,16 +7292,14 @@
         <v>40.91999999999998</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6649,16 +7333,14 @@
         <v>40.91833333333332</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6692,16 +7374,14 @@
         <v>40.91999999999998</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6742,7 +7422,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6783,7 +7463,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -6824,7 +7504,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -6865,7 +7545,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -6906,7 +7586,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -6947,7 +7627,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -6988,7 +7668,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7029,7 +7709,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7070,7 +7750,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7111,7 +7791,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7152,7 +7832,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7193,7 +7873,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7234,7 +7914,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7275,7 +7955,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7316,7 +7996,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7357,7 +8037,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7398,7 +8078,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7439,7 +8119,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7480,7 +8160,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7521,7 +8201,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7562,7 +8242,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7596,16 +8276,14 @@
         <v>40.83</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>40.5</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7646,7 +8324,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7680,16 +8358,14 @@
         <v>40.81499999999999</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>40.5</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7723,16 +8399,14 @@
         <v>40.81333333333332</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7766,16 +8440,14 @@
         <v>40.81833333333332</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>41</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -7809,16 +8481,14 @@
         <v>40.80666666666666</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>41</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -7859,7 +8529,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -7900,7 +8570,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -7934,16 +8604,14 @@
         <v>40.775</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>40.5</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -7984,7 +8652,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8018,16 +8686,14 @@
         <v>40.75833333333333</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8061,16 +8727,14 @@
         <v>40.75166666666667</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>40.2</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8104,16 +8768,14 @@
         <v>40.74999999999999</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>40.2</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8147,16 +8809,14 @@
         <v>40.75166666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8190,16 +8850,14 @@
         <v>40.74666666666667</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>40.3</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8233,16 +8891,14 @@
         <v>40.75166666666667</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8276,16 +8932,14 @@
         <v>40.75666666666667</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8319,16 +8973,14 @@
         <v>40.76000000000001</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8362,16 +9014,14 @@
         <v>40.75333333333334</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8405,16 +9055,14 @@
         <v>40.75500000000001</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8448,16 +9096,14 @@
         <v>40.75500000000001</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8491,16 +9137,14 @@
         <v>40.75500000000001</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>40.5</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8534,16 +9178,14 @@
         <v>40.75666666666667</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>40.4</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8577,16 +9219,14 @@
         <v>40.75833333333334</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>40.5</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8620,16 +9260,14 @@
         <v>40.76166666666667</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>40.6</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8663,16 +9301,14 @@
         <v>40.76333333333334</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>40.4</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8706,16 +9342,14 @@
         <v>40.765</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>40.5</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8749,16 +9383,14 @@
         <v>40.765</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>40.4</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8792,16 +9424,14 @@
         <v>40.75833333333334</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>40.3</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8835,16 +9465,14 @@
         <v>40.75500000000001</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>40.3</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8878,16 +9506,14 @@
         <v>40.75000000000001</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>40.3</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8921,16 +9547,14 @@
         <v>40.745</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>40.3</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8964,16 +9588,14 @@
         <v>40.745</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>40.3</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9007,16 +9629,14 @@
         <v>40.745</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>40.6</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9050,16 +9670,14 @@
         <v>40.74666666666667</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>40.6</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9093,16 +9711,14 @@
         <v>40.755</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9136,16 +9752,14 @@
         <v>40.74666666666667</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9179,16 +9793,14 @@
         <v>40.75166666666667</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9222,16 +9834,14 @@
         <v>40.74166666666667</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>40.5</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9272,7 +9882,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9306,16 +9916,14 @@
         <v>40.72833333333334</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9349,16 +9957,14 @@
         <v>40.71833333333334</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9399,7 +10005,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9440,7 +10046,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9481,7 +10087,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9522,7 +10128,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9563,7 +10169,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9604,7 +10210,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9645,7 +10251,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9679,16 +10285,14 @@
         <v>40.63166666666667</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>40.6</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9729,7 +10333,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9763,16 +10367,14 @@
         <v>40.63333333333334</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>41</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9813,7 +10415,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9854,7 +10456,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9895,7 +10497,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9936,7 +10538,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9977,7 +10579,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -10018,7 +10620,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -10059,7 +10661,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -10100,7 +10702,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -10141,7 +10743,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -10182,7 +10784,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10223,7 +10825,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -10264,7 +10866,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -10305,7 +10907,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -10346,7 +10948,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10387,7 +10989,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10428,7 +11030,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10469,7 +11071,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10510,7 +11112,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10551,7 +11153,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10592,7 +11194,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10633,7 +11235,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10674,7 +11276,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10715,7 +11317,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10756,7 +11358,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10797,7 +11399,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10838,7 +11440,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10879,7 +11481,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10920,7 +11522,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10961,7 +11563,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -11002,7 +11604,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -11043,7 +11645,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -11084,7 +11686,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -11125,7 +11727,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -11166,7 +11768,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -11207,7 +11809,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -11248,7 +11850,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -11289,7 +11891,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -11330,7 +11932,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -11371,7 +11973,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11412,7 +12014,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11453,7 +12055,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -11494,7 +12096,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -11535,7 +12137,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -11576,7 +12178,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -11617,7 +12219,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -11658,7 +12260,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -11699,7 +12301,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11740,7 +12342,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11781,7 +12383,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -11822,7 +12424,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -11863,7 +12465,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11904,7 +12506,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11945,7 +12547,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11986,7 +12588,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -12027,7 +12629,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -12068,7 +12670,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -12109,7 +12711,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -12150,7 +12752,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -12191,7 +12793,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -12232,7 +12834,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -12273,7 +12875,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -12314,7 +12916,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -12355,7 +12957,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -12396,7 +12998,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -12437,7 +13039,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -12478,7 +13080,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -12519,7 +13121,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -12560,7 +13162,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -12601,7 +13203,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -12642,7 +13244,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -12683,7 +13285,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -12724,7 +13326,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -12765,7 +13367,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -12806,7 +13408,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -12847,7 +13449,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -12888,7 +13490,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -12929,7 +13531,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -12970,7 +13572,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -13011,7 +13613,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -13052,7 +13654,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -13093,7 +13695,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -13134,7 +13736,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -13175,7 +13777,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -13216,7 +13818,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -13257,7 +13859,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -13298,7 +13900,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -13339,7 +13941,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -13380,7 +13982,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -13421,7 +14023,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -13462,7 +14064,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -13503,7 +14105,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -13544,7 +14146,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -13585,7 +14187,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -13626,7 +14228,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -13667,7 +14269,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -13708,7 +14310,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -13749,7 +14351,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -13790,7 +14392,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -13831,7 +14433,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -13872,7 +14474,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -13913,7 +14515,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -13954,7 +14556,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -13995,7 +14597,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -14036,7 +14638,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -14077,7 +14679,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -14118,7 +14720,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -14159,7 +14761,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -14200,7 +14802,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -14241,7 +14843,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -14282,7 +14884,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -14323,7 +14925,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -14364,7 +14966,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -14405,7 +15007,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -14446,7 +15048,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -14487,7 +15089,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -14528,7 +15130,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -14569,7 +15171,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -14610,7 +15212,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -14651,7 +15253,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -14692,7 +15294,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -14733,7 +15335,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -14774,7 +15376,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -14815,7 +15417,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -14856,7 +15458,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -14897,7 +15499,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -14938,7 +15540,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -14979,7 +15581,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -15020,7 +15622,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -15061,7 +15663,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -15102,7 +15704,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -15143,7 +15745,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -15184,7 +15786,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -15225,7 +15827,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -15266,7 +15868,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -15307,7 +15909,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -15348,7 +15950,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -15389,7 +15991,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -15430,7 +16032,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -15471,7 +16073,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -15512,7 +16114,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -15553,7 +16155,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -15594,7 +16196,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -15631,19 +16233,19 @@
         <v>0</v>
       </c>
       <c r="I393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>1</v>
+        <v>1.007285012285012</v>
       </c>
     </row>
     <row r="394">
@@ -15672,19 +16274,13 @@
         <v>0</v>
       </c>
       <c r="I394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
-        <v>1.019752475247525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -15713,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
@@ -15748,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest TRV.xlsx
+++ b/BackTest/2019-11-02 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>-94191.5142801989</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-93013.5287801989</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-102252.1467801989</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-104707.4838485592</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-104729.4838485592</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-104718.4838485592</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-74979.44684855919</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-74979.44684855919</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-87572.77034855919</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-86739.77034855919</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-87190.33184855919</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-87190.33184855919</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-87087.5893485592</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-75808.8721485592</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-75808.8721485592</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-78337.72004855919</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-75790.98444855919</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-80582.22924855919</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-95257.91674855919</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-111906.1131485592</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-136414.9691485592</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-132694.9965485592</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-132694.9965485592</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-202940.4265485592</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-195630.5082485592</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-193000.1564485592</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-183561.9528485592</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-213551.9842485592</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-206331.9843485592</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-206285.8483485592</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-206285.8483485592</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-228945.7235485592</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-357749.6932485592</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-355132.2909485592</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-354785.0740485592</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-376524.8567485592</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-346663.0414485592</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-346663.0414485592</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-346663.0414485592</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-349862.3830485592</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-339357.3369485592</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-279598.0996485592</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-279617.3507485592</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-219985.0180300407</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-256347.1029300407</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-256347.1029300407</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-534509.9949300408</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-534498.9949300408</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-573611.2548300407</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-684740.7600300408</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-680112.0768300408</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-677817.9746300408</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-677854.625683905</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-784401.7263839049</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-941842.7514839049</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-941830.7514839049</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-996401.3861839049</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-996390.3861839049</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1076805.086383905</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1076795.086383905</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1261393.300783905</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1349040.238883905</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1492331.478183905</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1492331.478183905</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1492331.478183905</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1492331.478183905</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1439137.19982248</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1710684.005934675</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1710684.005934675</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1710684.005934675</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1711015.947434675</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1703679.798834675</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1703679.798834675</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1704579.804434675</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1777224.744034675</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -8998,10 +8998,14 @@
         <v>-2910275.002734675</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="J261" t="n">
+        <v>40.5</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
@@ -9031,11 +9035,19 @@
         <v>-2905948.807634675</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J262" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9076,19 @@
         <v>-2905948.807634675</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>41</v>
+      </c>
+      <c r="J263" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9229,10 +9249,14 @@
         <v>-3045515.828658205</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="J268" t="n">
+        <v>40.2</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
@@ -9262,11 +9286,19 @@
         <v>-3045615.828658205</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J269" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9327,19 @@
         <v>-3045595.828658205</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="J270" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9368,19 @@
         <v>-3032485.681658205</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J271" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9409,19 @@
         <v>-3032525.264958205</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J272" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9450,19 @@
         <v>-3032270.166918989</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="J273" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9491,19 @@
         <v>-3032270.166918989</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J274" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9532,19 @@
         <v>-3032270.166918989</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J275" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9573,19 @@
         <v>-3095717.531618989</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J276" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9614,19 @@
         <v>-3095707.531618989</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="J277" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9655,19 @@
         <v>-3095707.531618989</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J278" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9696,19 @@
         <v>-3098111.852518989</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J279" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9737,19 @@
         <v>-3098111.852518989</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="J280" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9778,19 @@
         <v>-3098111.852518989</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="J281" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,15 +9819,19 @@
         <v>-3097942.074218989</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>40.5</v>
       </c>
       <c r="J282" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="K282" t="inlineStr"/>
+        <v>40.2</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9732,11 +9864,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L283" t="n">
@@ -9767,11 +9899,13 @@
         <v>-3098276.430518989</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>40.5</v>
+      </c>
       <c r="J284" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -9806,11 +9940,13 @@
         <v>-3128949.752518989</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>40.5</v>
+      </c>
       <c r="J285" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -9845,11 +9981,13 @@
         <v>-3128949.752518989</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>40.3</v>
+      </c>
       <c r="J286" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -9884,11 +10022,13 @@
         <v>-3128949.752518989</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>40.3</v>
+      </c>
       <c r="J287" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -9923,11 +10063,13 @@
         <v>-3180603.374618989</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>40.3</v>
+      </c>
       <c r="J288" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -9962,11 +10104,13 @@
         <v>-3180603.374618989</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>40.2</v>
+      </c>
       <c r="J289" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10001,11 +10145,13 @@
         <v>-3180458.374618989</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>40.2</v>
+      </c>
       <c r="J290" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10040,11 +10186,13 @@
         <v>-3180458.374618989</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>40.6</v>
+      </c>
       <c r="J291" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10079,11 +10227,13 @@
         <v>-3148708.815634675</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>40.6</v>
+      </c>
       <c r="J292" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10118,11 +10268,13 @@
         <v>-3110940.891334675</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>41</v>
+      </c>
       <c r="J293" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10157,11 +10309,13 @@
         <v>-3147699.922534675</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J294" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10200,7 +10354,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10239,7 +10393,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10278,7 +10432,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10317,7 +10471,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10356,7 +10510,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10395,7 +10549,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10434,7 +10588,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10473,7 +10627,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10512,7 +10666,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10551,7 +10705,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10590,7 +10744,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10629,7 +10783,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10668,7 +10822,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10707,7 +10861,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10746,7 +10900,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10785,7 +10939,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10824,7 +10978,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10863,7 +11017,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10902,7 +11056,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10941,7 +11095,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -10980,7 +11134,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11019,7 +11173,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11058,7 +11212,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11097,7 +11251,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11136,7 +11290,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11175,7 +11329,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11214,7 +11368,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11253,7 +11407,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11292,7 +11446,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11331,7 +11485,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11370,7 +11524,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11409,7 +11563,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11448,7 +11602,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11487,7 +11641,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11526,7 +11680,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11565,7 +11719,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11604,7 +11758,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11639,13 +11793,11 @@
         <v>-3281132.749634675</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11684,7 +11836,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11723,7 +11875,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11762,7 +11914,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11801,7 +11953,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11836,13 +11988,11 @@
         <v>-3301838.481834675</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11881,7 +12031,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11916,13 +12066,11 @@
         <v>-3307721.896393599</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11961,7 +12109,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11996,13 +12144,11 @@
         <v>-3366833.492593599</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>40.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12037,13 +12183,11 @@
         <v>-3366833.492593599</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>40.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12078,13 +12222,11 @@
         <v>-3366776.371793599</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>40.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12119,13 +12261,11 @@
         <v>-3366775.505393599</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>40.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12160,13 +12300,11 @@
         <v>-3405491.476193598</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12201,13 +12339,11 @@
         <v>-3404542.429793599</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>40.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12242,13 +12378,11 @@
         <v>-3390814.575093599</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>40.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12283,13 +12417,11 @@
         <v>-3389531.468393599</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>40.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12324,13 +12456,11 @@
         <v>-3375342.714248938</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>41.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12365,13 +12495,11 @@
         <v>-3374742.714248938</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>41.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12406,13 +12534,11 @@
         <v>-3376315.430548938</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>41.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12451,7 +12577,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12490,7 +12616,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12529,7 +12655,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12568,7 +12694,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12603,13 +12729,11 @@
         <v>-3387219.387648938</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>41.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12644,13 +12768,11 @@
         <v>-3381143.344048938</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12685,13 +12807,11 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>41.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12726,13 +12846,11 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12767,13 +12885,11 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12808,13 +12924,11 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12849,13 +12963,11 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12890,13 +13002,11 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12931,13 +13041,11 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12972,13 +13080,11 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13013,13 +13119,11 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13054,13 +13158,11 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13095,13 +13197,11 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13136,13 +13236,11 @@
         <v>-3415505.790848938</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13177,13 +13275,11 @@
         <v>-3415505.790848938</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>41.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13218,13 +13314,11 @@
         <v>-3416501.469748938</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>41.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13259,13 +13353,11 @@
         <v>-3416501.469748938</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13300,13 +13392,11 @@
         <v>-3416491.008648938</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13345,7 +13435,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13380,13 +13470,11 @@
         <v>-3425364.862848938</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13421,13 +13509,11 @@
         <v>-3378205.777648938</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13462,13 +13548,11 @@
         <v>-3378205.777648938</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>41.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13507,7 +13591,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13542,11 +13626,11 @@
         <v>-3387549.041548938</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13585,7 +13669,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13624,7 +13708,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13663,7 +13747,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13702,7 +13786,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13741,7 +13825,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13780,7 +13864,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13819,7 +13903,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13858,7 +13942,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13893,13 +13977,11 @@
         <v>-3403939.775648939</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>41.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13934,13 +14016,11 @@
         <v>-3403939.775648939</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>41.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13975,13 +14055,11 @@
         <v>-3403751.41754894</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>41.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14020,7 +14098,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14059,7 +14137,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14098,7 +14176,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14137,7 +14215,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14176,7 +14254,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14215,7 +14293,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14254,7 +14332,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14293,7 +14371,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14332,7 +14410,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14371,7 +14449,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14410,7 +14488,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14449,7 +14527,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14484,13 +14562,11 @@
         <v>-3474422.46870525</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14529,7 +14605,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14564,13 +14640,11 @@
         <v>-3544996.61010525</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>40.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14609,7 +14683,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14644,13 +14718,11 @@
         <v>-3544862.61010525</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14685,13 +14757,11 @@
         <v>-3544862.61010525</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14726,13 +14796,11 @@
         <v>-3545698.09080525</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14767,13 +14835,13 @@
         <v>-3569845.35470525</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>40.8</v>
       </c>
       <c r="J410" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14808,13 +14876,13 @@
         <v>-3569845.35470525</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>40.7</v>
       </c>
       <c r="J411" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14849,13 +14917,13 @@
         <v>-3698055.50540525</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>40.7</v>
       </c>
       <c r="J412" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14890,13 +14958,13 @@
         <v>-3698045.50540525</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>40.5</v>
       </c>
       <c r="J413" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14931,13 +14999,13 @@
         <v>-3698045.50540525</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>40.7</v>
       </c>
       <c r="J414" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14972,13 +15040,13 @@
         <v>-3705246.847705251</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>40.7</v>
       </c>
       <c r="J415" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15013,13 +15081,13 @@
         <v>-3700066.247305251</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>40.6</v>
       </c>
       <c r="J416" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15054,13 +15122,13 @@
         <v>-3697221.009205251</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>40.7</v>
       </c>
       <c r="J417" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15095,13 +15163,13 @@
         <v>-3697221.009205251</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>40.8</v>
       </c>
       <c r="J418" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15136,11 +15204,13 @@
         <v>-3679316.883005251</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J419" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15175,11 +15245,13 @@
         <v>-3679563.50100525</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J420" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15214,11 +15286,13 @@
         <v>-3679563.50100525</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J421" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15257,7 +15331,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15296,7 +15370,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15335,7 +15409,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15370,13 +15444,11 @@
         <v>-3716798.99620525</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15411,13 +15483,13 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>40.8</v>
       </c>
       <c r="J426" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15452,13 +15524,11 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
-      </c>
-      <c r="I427" t="n">
-        <v>40.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15493,13 +15563,13 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>40.7</v>
       </c>
       <c r="J428" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15534,13 +15604,13 @@
         <v>-3885969.29280525</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>40.7</v>
       </c>
       <c r="J429" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15575,13 +15645,13 @@
         <v>-3880388.50390525</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>40.5</v>
       </c>
       <c r="J430" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15616,13 +15686,13 @@
         <v>-3880180.50270525</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>40.6</v>
       </c>
       <c r="J431" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15657,11 +15727,13 @@
         <v>-3884818.659705251</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>41</v>
+      </c>
       <c r="J432" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15696,11 +15768,13 @@
         <v>-3880848.659705251</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>40.6</v>
+      </c>
       <c r="J433" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15735,11 +15809,13 @@
         <v>-4079623.483405251</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>40.7</v>
+      </c>
       <c r="J434" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15778,7 +15854,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15817,7 +15893,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15856,7 +15932,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15895,7 +15971,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15934,7 +16010,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15969,11 +16045,13 @@
         <v>-4061520.39610525</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J440" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16008,11 +16086,13 @@
         <v>-4061520.39610525</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J441" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16051,7 +16131,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16086,11 +16166,13 @@
         <v>-4030126.49670525</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J443" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16129,7 +16211,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16168,7 +16250,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16207,7 +16289,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16246,7 +16328,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16285,7 +16367,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16324,7 +16406,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16363,7 +16445,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16402,7 +16484,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16441,7 +16523,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16480,7 +16562,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16519,7 +16601,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16558,7 +16640,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16597,7 +16679,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16636,7 +16718,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16675,7 +16757,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16714,7 +16796,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16753,7 +16835,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16792,7 +16874,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16831,7 +16913,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16870,7 +16952,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16909,7 +16991,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16948,7 +17030,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16987,7 +17069,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17026,7 +17108,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17065,7 +17147,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17078,6 +17160,6 @@
       <c r="M468" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest TRV.xlsx
+++ b/BackTest/2019-11-02 BackTest TRV.xlsx
@@ -550,7 +550,7 @@
         <v>40632.12461980109</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>64787.04801980109</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>77834.62341980109</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>77846.62341980109</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-94191.5142801989</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-93013.5287801989</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-102252.1467801989</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-102252.1467801989</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-109391.2653801989</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-109391.2653801989</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-104707.4838485592</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-104729.4838485592</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-104718.4838485592</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-74979.44684855919</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-74979.44684855919</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-87572.77034855919</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-86739.77034855919</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-87087.5893485592</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-75808.8721485592</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-78337.72004855919</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-136414.9691485592</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-132694.9965485592</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-132694.9965485592</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-202940.4265485592</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-195795.9620485592</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-195630.5082485592</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-195630.5082485592</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-183561.9528485592</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-213551.9842485592</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-206285.8483485592</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-206285.8483485592</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-228945.7235485592</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-357749.6932485592</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-355132.2909485592</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-354785.0740485592</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-354628.2786485592</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-346663.0414485592</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-349862.3830485592</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-339357.3369485592</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-279598.0996485592</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-279617.3507485592</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-219985.0180300407</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-256347.1029300407</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-256347.1029300407</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -9856,10 +9856,14 @@
         <v>-3128949.752518989</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="J287" t="n">
+        <v>40.3</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
@@ -9889,11 +9893,19 @@
         <v>-3180603.374618989</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="J288" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9934,19 @@
         <v>-3180603.374618989</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="J289" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +9975,19 @@
         <v>-3180458.374618989</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="J290" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10016,19 @@
         <v>-3180458.374618989</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="J291" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10057,19 @@
         <v>-3148708.815634675</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="J292" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +10101,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10140,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10176,19 @@
         <v>-3147689.922534675</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="J295" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +10220,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10259,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10298,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +10337,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10376,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +10415,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +10454,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +10493,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10532,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10571,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +10610,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +10649,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +10688,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +10727,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +10766,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10802,19 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="J311" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10843,19 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J312" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10884,19 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J313" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10925,19 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J314" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +10966,19 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J315" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +11010,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +11049,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +11088,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11124,19 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J319" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11165,19 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J320" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11206,19 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J321" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11247,19 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J322" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11288,19 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J323" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11329,19 @@
         <v>-3258766.079734675</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J324" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11370,19 @@
         <v>-3258766.079734675</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J325" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11411,19 @@
         <v>-3258766.079734675</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11452,19 @@
         <v>-3282397.213634675</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J327" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11493,19 @@
         <v>-3282397.213634675</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>41</v>
+      </c>
+      <c r="J328" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11534,19 @@
         <v>-3281132.749634675</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>41</v>
+      </c>
+      <c r="J329" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11575,19 @@
         <v>-3281132.749634675</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J330" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11616,19 @@
         <v>-3281132.749634675</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J331" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11657,19 @@
         <v>-3281132.749634675</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J332" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +11698,19 @@
         <v>-3281060.110434675</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J333" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11739,19 @@
         <v>-3281070.110434675</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J334" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11780,19 @@
         <v>-3281026.110434675</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>41</v>
+      </c>
+      <c r="J335" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +11821,19 @@
         <v>-3301838.481834675</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J336" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11862,19 @@
         <v>-3301838.481834675</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>41</v>
+      </c>
+      <c r="J337" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11903,19 @@
         <v>-3307721.896393599</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>41</v>
+      </c>
+      <c r="J338" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11944,19 @@
         <v>-3307721.896393599</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J339" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11985,19 @@
         <v>-3354542.852093599</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J340" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +12026,19 @@
         <v>-3366833.492593599</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J341" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +12067,19 @@
         <v>-3366833.492593599</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J342" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +12108,19 @@
         <v>-3366776.371793599</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J343" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +12149,19 @@
         <v>-3366775.505393599</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J344" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +12190,19 @@
         <v>-3405491.476193598</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J345" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +12231,19 @@
         <v>-3404542.429793599</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="J346" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +12272,19 @@
         <v>-3390814.575093599</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="J347" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12313,19 @@
         <v>-3389531.468393599</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J348" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +12357,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +12393,19 @@
         <v>-3374742.714248938</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J350" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +12437,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +12476,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +12515,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +12554,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12590,19 @@
         <v>-3381343.391248938</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J355" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12631,19 @@
         <v>-3387219.387648938</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J356" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +12672,19 @@
         <v>-3381143.344048938</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J357" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12713,19 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J358" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12754,19 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J359" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12795,19 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J360" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12836,19 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J361" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12877,19 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J362" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12918,19 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J363" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12959,19 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J364" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +13000,19 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J365" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +13041,19 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J366" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +13082,19 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J367" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +13123,19 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J368" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +13164,19 @@
         <v>-3415505.790848938</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J369" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +13205,19 @@
         <v>-3415505.790848938</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J370" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +13246,19 @@
         <v>-3416501.469748938</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J371" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +13287,19 @@
         <v>-3416501.469748938</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>41</v>
+      </c>
+      <c r="J372" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +13328,19 @@
         <v>-3416491.008648938</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>41</v>
+      </c>
+      <c r="J373" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +13369,19 @@
         <v>-3425364.862848938</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J374" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +13410,19 @@
         <v>-3425364.862848938</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J375" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +13451,19 @@
         <v>-3378205.777648938</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J376" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +13492,19 @@
         <v>-3378205.777648938</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J377" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +13533,19 @@
         <v>-3387549.041548938</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J378" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +13574,19 @@
         <v>-3387549.041548938</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>41</v>
+      </c>
+      <c r="J379" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13615,19 @@
         <v>-3437810.288948939</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>41</v>
+      </c>
+      <c r="J380" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13656,19 @@
         <v>-3436943.579948939</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J381" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +13697,19 @@
         <v>-3468091.683548939</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J382" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13738,19 @@
         <v>-3479281.718848939</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J383" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13779,19 @@
         <v>-3451762.673867871</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J384" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13820,19 @@
         <v>-3451962.673867871</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J385" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13861,19 @@
         <v>-3453285.301767871</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>41</v>
+      </c>
+      <c r="J386" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13902,19 @@
         <v>-3431301.823970784</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J387" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +13943,19 @@
         <v>-3403939.775648939</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J388" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13984,19 @@
         <v>-3403939.775648939</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J389" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +14025,19 @@
         <v>-3403751.41754894</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J390" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +14066,19 @@
         <v>-3424205.49484894</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J391" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +14107,19 @@
         <v>-3424205.49484894</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J392" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +14148,19 @@
         <v>-3433698.316427095</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J393" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +14189,19 @@
         <v>-3433698.316427095</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J394" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +14230,19 @@
         <v>-3433698.316427095</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J395" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +14271,19 @@
         <v>-3420735.069327095</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J396" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +14312,19 @@
         <v>-3437442.258027095</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J397" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +14353,19 @@
         <v>-3437442.258027095</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J398" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +14394,19 @@
         <v>-3437442.258027095</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J399" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +14435,19 @@
         <v>-3437442.258027095</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J400" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +14476,19 @@
         <v>-3449071.630727095</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J401" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +14517,19 @@
         <v>-3474432.46870525</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J402" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +14558,19 @@
         <v>-3474422.46870525</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>41</v>
+      </c>
+      <c r="J403" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13720,8 +14602,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13753,8 +14641,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13789,9 +14683,13 @@
         <v>40.7</v>
       </c>
       <c r="J406" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K406" t="inlineStr"/>
+        <v>40.3</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,15 +14718,17 @@
         <v>-3544862.61010525</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J407" t="n">
-        <v>40.7</v>
+        <v>40.3</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L407" t="n">
@@ -13859,15 +14759,17 @@
         <v>-3544862.61010525</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J408" t="n">
-        <v>40.7</v>
+        <v>40.3</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L408" t="n">
@@ -13898,11 +14800,19 @@
         <v>-3545698.09080525</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J409" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13937,9 +14847,13 @@
         <v>40.8</v>
       </c>
       <c r="J410" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="K410" t="inlineStr"/>
+        <v>40.3</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13974,11 +14888,11 @@
         <v>40.7</v>
       </c>
       <c r="J411" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L411" t="n">
@@ -14015,11 +14929,11 @@
         <v>40.7</v>
       </c>
       <c r="J412" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L412" t="n">
@@ -14056,7 +14970,7 @@
         <v>40.5</v>
       </c>
       <c r="J413" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14097,7 +15011,7 @@
         <v>40.7</v>
       </c>
       <c r="J414" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14138,7 +15052,7 @@
         <v>40.7</v>
       </c>
       <c r="J415" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14179,7 +15093,7 @@
         <v>40.6</v>
       </c>
       <c r="J416" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14220,7 +15134,7 @@
         <v>40.7</v>
       </c>
       <c r="J417" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14261,7 +15175,7 @@
         <v>40.8</v>
       </c>
       <c r="J418" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14302,7 +15216,7 @@
         <v>40.8</v>
       </c>
       <c r="J419" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14337,11 +15251,13 @@
         <v>-3679563.50100525</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J420" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14376,11 +15292,13 @@
         <v>-3679563.50100525</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J421" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14415,11 +15333,13 @@
         <v>-3711874.96850525</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J422" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14454,11 +15374,13 @@
         <v>-3711874.96850525</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J423" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14493,11 +15415,13 @@
         <v>-3711849.49410525</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J424" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14532,11 +15456,13 @@
         <v>-3716798.99620525</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J425" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14571,11 +15497,13 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J426" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14610,11 +15538,13 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>40.7</v>
+      </c>
       <c r="J427" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14649,11 +15579,13 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>40.7</v>
+      </c>
       <c r="J428" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -14688,11 +15620,13 @@
         <v>-3885969.29280525</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>40.7</v>
+      </c>
       <c r="J429" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -14727,11 +15661,13 @@
         <v>-3880388.50390525</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>40.5</v>
+      </c>
       <c r="J430" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -14766,11 +15702,13 @@
         <v>-3880180.50270525</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>40.6</v>
+      </c>
       <c r="J431" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -14805,11 +15743,13 @@
         <v>-3884818.659705251</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>41</v>
+      </c>
       <c r="J432" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -14844,11 +15784,13 @@
         <v>-3880848.659705251</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>40.6</v>
+      </c>
       <c r="J433" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -14883,11 +15825,13 @@
         <v>-4079623.483405251</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>40.7</v>
+      </c>
       <c r="J434" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -14926,7 +15870,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -14965,7 +15909,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15004,7 +15948,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15043,7 +15987,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15082,7 +16026,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15117,11 +16061,13 @@
         <v>-4061520.39610525</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J440" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15156,11 +16102,13 @@
         <v>-4061520.39610525</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J441" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15195,11 +16143,13 @@
         <v>-4061520.39610525</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J442" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15238,7 +16188,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15277,7 +16227,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15316,7 +16266,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15355,7 +16305,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15394,7 +16344,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15433,7 +16383,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15472,7 +16422,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15511,7 +16461,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15550,7 +16500,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15585,19 +16535,19 @@
         <v>-3880577.98790525</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L452" t="n">
-        <v>1.004803921568628</v>
+        <v>1</v>
       </c>
       <c r="M452" t="inlineStr"/>
     </row>
@@ -15627,8 +16577,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15660,8 +16616,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15690,11 +16652,17 @@
         <v>-3925448.46170525</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15723,11 +16691,17 @@
         <v>-4000813.05680525</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15756,11 +16730,17 @@
         <v>-3991716.20550525</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15789,11 +16769,17 @@
         <v>-3999092.52640525</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15822,11 +16808,17 @@
         <v>-3990104.25450525</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15855,11 +16847,17 @@
         <v>-3990104.25450525</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15888,11 +16886,17 @@
         <v>-3996585.98710525</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15921,11 +16925,17 @@
         <v>-3953536.72300525</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15957,8 +16967,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15987,11 +17003,17 @@
         <v>-3875665.472915789</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16023,8 +17045,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16056,8 +17084,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16089,8 +17123,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16122,8 +17162,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
